--- a/docs/聲調對照表.xlsx
+++ b/docs/聲調對照表.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\rime-bp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E807DFD-47D3-4627-A1ED-D3D6F9BD9D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD44DCE-A650-4B03-955F-5BD442582ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" xr2:uid="{08BCE876-220B-4617-985F-BC533BEFAD68}"/>
+    <workbookView xWindow="30930" yWindow="630" windowWidth="28800" windowHeight="14310" activeTab="1" xr2:uid="{08BCE876-220B-4617-985F-BC533BEFAD68}"/>
   </bookViews>
   <sheets>
     <sheet name="聲調對照表（閩拚）" sheetId="1" r:id="rId1"/>
-    <sheet name="聲調對照表（閩拚） (2)" sheetId="6" r:id="rId2"/>
-    <sheet name="聲調對照表 (台語音標)" sheetId="5" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
-    <sheet name="聲調對照表 (3)" sheetId="3" r:id="rId5"/>
-    <sheet name="聲調對照表 (2)" sheetId="2" r:id="rId6"/>
+    <sheet name="聲調對照表（台語音標）" sheetId="7" r:id="rId2"/>
+    <sheet name="聲調對照表（閩拚） (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="聲調對照表 (台語音標)" sheetId="5" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId5"/>
+    <sheet name="聲調對照表 (3)" sheetId="3" r:id="rId6"/>
+    <sheet name="聲調對照表 (2)" sheetId="2" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="十五音韻母">'[1]十五音-韻母'!$C$5:$C$54</definedName>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="214">
   <si>
     <t>˙</t>
   </si>
@@ -779,12 +780,64 @@
   <si>
     <t>tong8</t>
   </si>
+  <si>
+    <t>輕聲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輕聲調</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>◌</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="254"/>
+      </rPr>
+      <t>̍</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Noto Sans TC Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t> U+030D</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ah0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三連音
+第1音節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1038,6 +1091,14 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="254"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1206,7 +1267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1404,6 +1465,9 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -13849,8 +13913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8264B7F8-EC6F-425C-A778-2C680D504D26}">
   <dimension ref="B2:O18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
@@ -14274,6 +14338,502 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC180E-22C7-41E3-9B1C-02C96E708532}">
+  <dimension ref="B2:O18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="25.5">
+      <c r="B2" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="57.75">
+      <c r="B3" s="54">
+        <v>1</v>
+      </c>
+      <c r="C3" s="52">
+        <v>44</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", "ng"), "")</f>
+        <v>tong</v>
+      </c>
+      <c r="J3" s="56" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tong", F3)</f>
+        <v>tong;</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="46">
+        <f xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(L3,4)), "")</f>
+        <v>769</v>
+      </c>
+      <c r="N3" s="46" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L3,4)))), "")</f>
+        <v>ó</v>
+      </c>
+      <c r="O3" s="46" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L3,4))), "ng"), "")</f>
+        <v>tóng</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="57.75">
+      <c r="B4" s="54">
+        <v>2</v>
+      </c>
+      <c r="C4" s="52">
+        <v>53</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "ng"), "")</f>
+        <v>tóng</v>
+      </c>
+      <c r="J4" s="56" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tong", F4)</f>
+        <v>tong\</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" s="46">
+        <f t="shared" ref="M4:M10" si="0" xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(L4,4)), "")</f>
+        <v>768</v>
+      </c>
+      <c r="N4" s="46" t="str">
+        <f t="shared" ref="N4:N10" si="1" xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L4,4)))), "")</f>
+        <v>ò</v>
+      </c>
+      <c r="O4" s="46" t="str">
+        <f t="shared" ref="O4:O10" si="2" xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L4,4))), "ng"), "")</f>
+        <v>tòng</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="57.75">
+      <c r="B5" s="54">
+        <v>3</v>
+      </c>
+      <c r="C5" s="52">
+        <v>21</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0300",4))), "ng"), "")</f>
+        <v>tòng</v>
+      </c>
+      <c r="J5" s="56" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tong", F5)</f>
+        <v>tong_</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="46">
+        <f t="shared" si="0"/>
+        <v>781</v>
+      </c>
+      <c r="N5" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>o̍</v>
+      </c>
+      <c r="O5" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>to̍ng</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="57.75">
+      <c r="B6" s="54">
+        <v>4</v>
+      </c>
+      <c r="C6" s="52">
+        <v>32</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", "k"), "")</f>
+        <v>tok</v>
+      </c>
+      <c r="J6" s="56" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tok", F6)</f>
+        <v>tok[</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" s="46">
+        <f t="shared" si="0"/>
+        <v>770</v>
+      </c>
+      <c r="N6" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>ô</v>
+      </c>
+      <c r="O6" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>tông</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="57.75">
+      <c r="B7" s="54">
+        <v>5</v>
+      </c>
+      <c r="C7" s="52">
+        <v>13</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0302",4))), "ng"), "")</f>
+        <v>tông</v>
+      </c>
+      <c r="J7" s="56" t="str">
+        <f t="shared" ref="J7:J8" si="3" xml:space="preserve"> _xlfn.CONCAT("tong", F7)</f>
+        <v>tong/</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="M7" s="46">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+      <c r="N7" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>ǒ</v>
+      </c>
+      <c r="O7" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>tǒng</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="57.75">
+      <c r="B8" s="54">
+        <v>7</v>
+      </c>
+      <c r="C8" s="52">
+        <v>22</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
+        <v>tōng</v>
+      </c>
+      <c r="J8" s="56" t="str">
+        <f t="shared" si="3"/>
+        <v>tong-</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="M8" s="46">
+        <f t="shared" si="0"/>
+        <v>772</v>
+      </c>
+      <c r="N8" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>ō</v>
+      </c>
+      <c r="O8" s="46" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
+        <v>tōng</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="57.75">
+      <c r="B9" s="54">
+        <v>8</v>
+      </c>
+      <c r="C9" s="52">
+        <v>121</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030D",4))), "k"), "")</f>
+        <v>to̍k</v>
+      </c>
+      <c r="J9" s="56" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tok", F9)</f>
+        <v>tok]</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="M9" s="46">
+        <f t="shared" si="0"/>
+        <v>781</v>
+      </c>
+      <c r="N9" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>o̍</v>
+      </c>
+      <c r="O9" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>to̍ng</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="57.75">
+      <c r="B10" s="54">
+        <v>0</v>
+      </c>
+      <c r="C10" s="52">
+        <v>2</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="57">
+        <v>7</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="I10" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("a", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030A",4))), "h"), "")</f>
+        <v>åh</v>
+      </c>
+      <c r="J10" s="56" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("a", F10)</f>
+        <v>a7</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="46">
+        <f t="shared" si="0"/>
+        <v>779</v>
+      </c>
+      <c r="N10" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>ő</v>
+      </c>
+      <c r="O10" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>tőng</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="57.75">
+      <c r="B14" s="54">
+        <v>6</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030C",4))), "ng"), "")</f>
+        <v>tǒng</v>
+      </c>
+      <c r="J14" s="56"/>
+    </row>
+    <row r="15" spans="2:15" ht="57.75">
+      <c r="B15" s="54">
+        <v>9</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030B",4))), "ng"), "")</f>
+        <v>tőng</v>
+      </c>
+      <c r="J15" s="56"/>
+    </row>
+    <row r="18" spans="2:10" ht="57.75" outlineLevel="1">
+      <c r="B18" s="9">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10">
+        <v>53</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="11" t="str">
+        <f xml:space="preserve"> "dong" &amp; J18</f>
+        <v>dong6</v>
+      </c>
+      <c r="J18" s="10">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1" display="https://zi-hi.com/sp/uni/0301" xr:uid="{0A4706D1-84DC-4182-A96A-35027C3F443C}"/>
+    <hyperlink ref="L4" r:id="rId2" display="https://zi-hi.com/sp/uni/0300" xr:uid="{CA7CE6B9-ACB2-4BD4-8CCD-9F323F16DB19}"/>
+    <hyperlink ref="L6" r:id="rId3" display="https://zi-hi.com/sp/uni/0302" xr:uid="{F51ED1B0-F464-4664-949A-2BF6E8D92207}"/>
+    <hyperlink ref="L7" r:id="rId4" display="https://zi-hi.com/sp/uni/030C" xr:uid="{A13388BA-C8A0-49CD-AD7D-92E78949E725}"/>
+    <hyperlink ref="L8" r:id="rId5" display="https://zi-hi.com/sp/uni/0304" xr:uid="{7DCF3A33-F3D8-4D15-8566-6580CE02AB86}"/>
+    <hyperlink ref="L9" r:id="rId6" display="https://zi-hi.com/sp/uni/030D" xr:uid="{89C45CD8-4919-45C7-BEF4-7CAB5797EF54}"/>
+    <hyperlink ref="L10" r:id="rId7" display="https://zi-hi.com/sp/uni/030B" xr:uid="{EC0523CB-79C1-4D03-88B1-0D58C6FCDA18}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045723BE-64D2-4E8C-B115-C260854DB41D}">
   <dimension ref="B2:R18"/>
   <sheetViews>
@@ -14749,7 +15309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71574A8B-8D3F-4AFC-B56E-E3C6E782C4A4}">
   <dimension ref="B2:L18"/>
   <sheetViews>
@@ -15050,7 +15610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8BB3E1-D1E0-449D-ACB7-CFE9630C3C54}">
   <dimension ref="B1:S23"/>
   <sheetViews>
@@ -15842,7 +16402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1050C03-4A49-40F3-8140-C9DAF6B05C63}">
   <dimension ref="B2:I18"/>
   <sheetViews>
@@ -16104,7 +16664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1566D659-7E1D-42E7-9495-78EC72F6C0D2}">
   <dimension ref="B2:J18"/>
   <sheetViews>

--- a/docs/聲調對照表.xlsx
+++ b/docs/聲調對照表.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\rime-bp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD44DCE-A650-4B03-955F-5BD442582ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0673A7F-7E15-4FEC-AED6-B098F27304FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30930" yWindow="630" windowWidth="28800" windowHeight="14310" activeTab="1" xr2:uid="{08BCE876-220B-4617-985F-BC533BEFAD68}"/>
+    <workbookView xWindow="30930" yWindow="630" windowWidth="34995" windowHeight="14310" tabRatio="818" activeTab="2" xr2:uid="{08BCE876-220B-4617-985F-BC533BEFAD68}"/>
   </bookViews>
   <sheets>
-    <sheet name="聲調對照表（閩拚）" sheetId="1" r:id="rId1"/>
-    <sheet name="聲調對照表（台語音標）" sheetId="7" r:id="rId2"/>
-    <sheet name="聲調對照表（閩拚） (2)" sheetId="6" r:id="rId3"/>
-    <sheet name="聲調對照表 (台語音標)" sheetId="5" r:id="rId4"/>
-    <sheet name="工作表1" sheetId="4" r:id="rId5"/>
-    <sheet name="聲調對照表 (3)" sheetId="3" r:id="rId6"/>
-    <sheet name="聲調對照表 (2)" sheetId="2" r:id="rId7"/>
+    <sheet name="聲調符號表" sheetId="4" r:id="rId1"/>
+    <sheet name="拚音聲調表（閩拚）" sheetId="1" r:id="rId2"/>
+    <sheet name="注音聲調表（閩拚）" sheetId="9" r:id="rId3"/>
+    <sheet name="拚音聲調表 (台語音標)" sheetId="5" r:id="rId4"/>
+    <sheet name="注音聲調表（台語音標）" sheetId="8" r:id="rId5"/>
+    <sheet name="聲調對照表（台語音標）" sheetId="7" r:id="rId6"/>
+    <sheet name="聲調對照表（閩拚） (2)" sheetId="6" r:id="rId7"/>
+    <sheet name="聲調對照表 (3)" sheetId="3" r:id="rId8"/>
+    <sheet name="聲調對照表 (2)" sheetId="2" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="十五音韻母">'[1]十五音-韻母'!$C$5:$C$54</definedName>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="283">
   <si>
     <t>˙</t>
   </si>
@@ -832,12 +834,240 @@
 第1音節</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ㄊㆲ</t>
+  </si>
+  <si>
+    <t>ㄊㆲˋ</t>
+  </si>
+  <si>
+    <t>ㄊㆲ˪</t>
+  </si>
+  <si>
+    <t>tok4</t>
+  </si>
+  <si>
+    <t>ㄊㆲˊ</t>
+  </si>
+  <si>
+    <t>ㄊㆲ˫</t>
+  </si>
+  <si>
+    <t>tok8</t>
+  </si>
+  <si>
+    <t>調號</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>四聲八調</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台語音標</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰平 (ㄚ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰上 (ㄚˋ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰去 (ㄚ˪)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽平 (ㄚˊ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽上 (ㄚˋ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽去 (ㄚ˫)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰入 (ㄚㆷ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽入 (ㄚㆷ˙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>ㆻ</t>
+  </si>
+  <si>
+    <t>入聲韻尾-k</t>
+  </si>
+  <si>
+    <t>ㆴ˙ㆵ˙ㆻ˙ㆷ˙</t>
+  </si>
+  <si>
+    <t>第8聲調號</t>
+  </si>
+  <si>
+    <t>寫在入聲韻尾後方</t>
+  </si>
+  <si>
+    <t>第2聲調號</t>
+  </si>
+  <si>
+    <t>第3聲調號</t>
+  </si>
+  <si>
+    <t>第5聲調號</t>
+  </si>
+  <si>
+    <t>第7聲調號</t>
+  </si>
+  <si>
+    <t>輕聲</t>
+  </si>
+  <si>
+    <t>寫在音節前方或韻母後方</t>
+  </si>
+  <si>
+    <t>Unicode表現</t>
+  </si>
+  <si>
+    <t>Unicode序列</t>
+  </si>
+  <si>
+    <t>U+31BBㆻ</t>
+  </si>
+  <si>
+    <t>原誤收ㆶ字，Unicode 13 (2020)增補</t>
+  </si>
+  <si>
+    <t>U+02D9˙</t>
+  </si>
+  <si>
+    <t>U+02CBˋ</t>
+  </si>
+  <si>
+    <t>U+02EA˪</t>
+  </si>
+  <si>
+    <t>U+02CAˊ</t>
+  </si>
+  <si>
+    <t>U+02EB˫</t>
+  </si>
+  <si>
+    <t>輕聲 (ㄚㆷ˙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方音符號</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰平(ㄚ̄)</t>
+  </si>
+  <si>
+    <t>陽平(ㄚ́)</t>
+  </si>
+  <si>
+    <t>陰上(ㄚ̌)</t>
+  </si>
+  <si>
+    <t>陽上(ㄚ̄)</t>
+  </si>
+  <si>
+    <t>陰去(ㄚ̀)</t>
+  </si>
+  <si>
+    <t>陽去(ㄚ̂)</t>
+  </si>
+  <si>
+    <t>陰入(ㄚㆷ̄)</t>
+  </si>
+  <si>
+    <t>陽入(ㄚㆷ́)</t>
+  </si>
+  <si>
+    <t>輕聲(ㄚㆷ˙)</t>
+  </si>
+  <si>
+    <t>陰平 ㄚ̄</t>
+  </si>
+  <si>
+    <t>陽平 ㄚ́</t>
+  </si>
+  <si>
+    <t>陰上 ㄚ̌</t>
+  </si>
+  <si>
+    <t>陽上 ㄚ̄</t>
+  </si>
+  <si>
+    <t>陰去 ㄚ̀</t>
+  </si>
+  <si>
+    <t>陽去 ㄚ̂</t>
+  </si>
+  <si>
+    <t>陰入 ㄚㆷ̄</t>
+  </si>
+  <si>
+    <t>陽入 ㄚㆷ́</t>
+  </si>
+  <si>
+    <t>輕聲 ㄚㆷ˙</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="46">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1099,8 +1329,59 @@
       <family val="2"/>
       <charset val="254"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Noto Sans TC Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Noto Sans TC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Noto Sans TC"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Noto Serif TC Black"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Noto Serif TC Black"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ㄅ源雲注音明體 M"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1135,6 +1416,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -1267,7 +1554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1367,15 +1654,6 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1388,23 +1666,11 @@
     <xf numFmtId="0" fontId="29" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1418,35 +1684,29 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1466,8 +1726,95 @@
     <xf numFmtId="0" fontId="35" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -13910,2407 +14257,706 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8264B7F8-EC6F-425C-A778-2C680D504D26}">
-  <dimension ref="B2:O18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15" ht="25.5">
-      <c r="B2" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="57.75">
-      <c r="B3" s="54">
-        <v>1</v>
-      </c>
-      <c r="C3" s="52">
-        <v>44</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
-        <v>tōng</v>
-      </c>
-      <c r="J3" s="56" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("tong", F3)</f>
-        <v>tong;</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="M3" s="46">
-        <f xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(L3,4)), "")</f>
-        <v>769</v>
-      </c>
-      <c r="N3" s="46" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L3,4)))), "")</f>
-        <v>ó</v>
-      </c>
-      <c r="O3" s="46" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L3,4))), "ng"), "")</f>
-        <v>tóng</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="57.75">
-      <c r="B4" s="60">
-        <v>2</v>
-      </c>
-      <c r="C4" s="61">
-        <v>13</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="65" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "ng"), "")</f>
-        <v>tóng</v>
-      </c>
-      <c r="J4" s="65" t="str">
-        <f t="shared" ref="J4:J7" si="0" xml:space="preserve"> _xlfn.CONCAT("tong", F4)</f>
-        <v>tong/</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="M4" s="46">
-        <f t="shared" ref="M4:M10" si="1" xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(L4,4)), "")</f>
-        <v>768</v>
-      </c>
-      <c r="N4" s="46" t="str">
-        <f t="shared" ref="N4:N10" si="2" xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L4,4)))), "")</f>
-        <v>ò</v>
-      </c>
-      <c r="O4" s="46" t="str">
-        <f t="shared" ref="O4:O10" si="3" xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L4,4))), "ng"), "")</f>
-        <v>tòng</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="57.75">
-      <c r="B5" s="54">
-        <v>3</v>
-      </c>
-      <c r="C5" s="52">
-        <v>53</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030C",4))), "ng"), "")</f>
-        <v>tǒng</v>
-      </c>
-      <c r="J5" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>tong\</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N5" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O5" s="46" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="57.75">
-      <c r="B6" s="60">
-        <v>5</v>
-      </c>
-      <c r="C6" s="61">
-        <v>21</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="65" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0300",4))), "ng"), "")</f>
-        <v>tòng</v>
-      </c>
-      <c r="J6" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v>tong_</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="M6" s="46">
-        <f t="shared" si="1"/>
-        <v>770</v>
-      </c>
-      <c r="N6" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>ô</v>
-      </c>
-      <c r="O6" s="46" t="str">
-        <f t="shared" si="3"/>
-        <v>tông</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="57.75">
-      <c r="B7" s="54">
-        <v>6</v>
-      </c>
-      <c r="C7" s="52">
-        <v>22</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="I7" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0302",4))), "ng"), "")</f>
-        <v>tông</v>
-      </c>
-      <c r="J7" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>tong-</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="M7" s="46">
-        <f t="shared" si="1"/>
-        <v>780</v>
-      </c>
-      <c r="N7" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>ǒ</v>
-      </c>
-      <c r="O7" s="46" t="str">
-        <f t="shared" si="3"/>
-        <v>tǒng</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="57.75">
-      <c r="B8" s="60">
-        <v>7</v>
-      </c>
-      <c r="C8" s="61">
-        <v>32</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="65" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "k"), "")</f>
-        <v>tōk</v>
-      </c>
-      <c r="J8" s="65" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("tok", F8)</f>
-        <v>tok[</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="M8" s="46">
-        <f t="shared" si="1"/>
-        <v>772</v>
-      </c>
-      <c r="N8" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>ō</v>
-      </c>
-      <c r="O8" s="46" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
-        <v>tōng</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="57.75">
-      <c r="B9" s="54">
-        <v>8</v>
-      </c>
-      <c r="C9" s="52">
-        <v>121</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "k"), "")</f>
-        <v>tók</v>
-      </c>
-      <c r="J9" s="56" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("tok", F9)</f>
-        <v>tok]</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="M9" s="46">
-        <f t="shared" si="1"/>
-        <v>781</v>
-      </c>
-      <c r="N9" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>o̍</v>
-      </c>
-      <c r="O9" s="46" t="str">
-        <f t="shared" si="3"/>
-        <v>to̍ng</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="42">
-      <c r="L10" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="46">
-        <f t="shared" si="1"/>
-        <v>779</v>
-      </c>
-      <c r="N10" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>ő</v>
-      </c>
-      <c r="O10" s="46" t="str">
-        <f t="shared" si="3"/>
-        <v>tőng</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="57.75" outlineLevel="1">
-      <c r="B18" s="9">
-        <v>4</v>
-      </c>
-      <c r="C18" s="10">
-        <v>53</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="11" t="str">
-        <f xml:space="preserve"> "dong" &amp; J18</f>
-        <v>dong6</v>
-      </c>
-      <c r="J18" s="10">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" display="https://zi-hi.com/sp/uni/0301" xr:uid="{04B8C98D-F169-4293-98FF-A169289A30B8}"/>
-    <hyperlink ref="L4" r:id="rId2" display="https://zi-hi.com/sp/uni/0300" xr:uid="{164A5C7C-0930-406F-8911-B14C8B68FEB2}"/>
-    <hyperlink ref="L6" r:id="rId3" display="https://zi-hi.com/sp/uni/0302" xr:uid="{054188C0-C2E4-4E26-819B-D1BC7F53A240}"/>
-    <hyperlink ref="L7" r:id="rId4" display="https://zi-hi.com/sp/uni/030C" xr:uid="{EADE347E-F69C-41CA-8055-93A08EA6B08A}"/>
-    <hyperlink ref="L8" r:id="rId5" display="https://zi-hi.com/sp/uni/0304" xr:uid="{253F7A72-1E1E-44A5-8B9C-137C6D2B9AA1}"/>
-    <hyperlink ref="L9" r:id="rId6" display="https://zi-hi.com/sp/uni/030D" xr:uid="{F842F116-D33E-49E6-9149-1B6667AAC917}"/>
-    <hyperlink ref="L10" r:id="rId7" display="https://zi-hi.com/sp/uni/030B" xr:uid="{39F28880-C71D-4A85-9BBE-350E7DDA4969}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC180E-22C7-41E3-9B1C-02C96E708532}">
-  <dimension ref="B2:O18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15" ht="25.5">
-      <c r="B2" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="57.75">
-      <c r="B3" s="54">
-        <v>1</v>
-      </c>
-      <c r="C3" s="52">
-        <v>44</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", "ng"), "")</f>
-        <v>tong</v>
-      </c>
-      <c r="J3" s="56" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("tong", F3)</f>
-        <v>tong;</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="M3" s="46">
-        <f xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(L3,4)), "")</f>
-        <v>769</v>
-      </c>
-      <c r="N3" s="46" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L3,4)))), "")</f>
-        <v>ó</v>
-      </c>
-      <c r="O3" s="46" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L3,4))), "ng"), "")</f>
-        <v>tóng</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="57.75">
-      <c r="B4" s="54">
-        <v>2</v>
-      </c>
-      <c r="C4" s="52">
-        <v>53</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "ng"), "")</f>
-        <v>tóng</v>
-      </c>
-      <c r="J4" s="56" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("tong", F4)</f>
-        <v>tong\</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="M4" s="46">
-        <f t="shared" ref="M4:M10" si="0" xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(L4,4)), "")</f>
-        <v>768</v>
-      </c>
-      <c r="N4" s="46" t="str">
-        <f t="shared" ref="N4:N10" si="1" xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L4,4)))), "")</f>
-        <v>ò</v>
-      </c>
-      <c r="O4" s="46" t="str">
-        <f t="shared" ref="O4:O10" si="2" xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L4,4))), "ng"), "")</f>
-        <v>tòng</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="57.75">
-      <c r="B5" s="54">
-        <v>3</v>
-      </c>
-      <c r="C5" s="52">
-        <v>21</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0300",4))), "ng"), "")</f>
-        <v>tòng</v>
-      </c>
-      <c r="J5" s="56" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("tong", F5)</f>
-        <v>tong_</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="M5" s="46">
-        <f t="shared" si="0"/>
-        <v>781</v>
-      </c>
-      <c r="N5" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>o̍</v>
-      </c>
-      <c r="O5" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>to̍ng</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="57.75">
-      <c r="B6" s="54">
-        <v>4</v>
-      </c>
-      <c r="C6" s="52">
-        <v>32</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", "k"), "")</f>
-        <v>tok</v>
-      </c>
-      <c r="J6" s="56" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("tok", F6)</f>
-        <v>tok[</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="M6" s="46">
-        <f t="shared" si="0"/>
-        <v>770</v>
-      </c>
-      <c r="N6" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>ô</v>
-      </c>
-      <c r="O6" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>tông</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="57.75">
-      <c r="B7" s="54">
-        <v>5</v>
-      </c>
-      <c r="C7" s="52">
-        <v>13</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0302",4))), "ng"), "")</f>
-        <v>tông</v>
-      </c>
-      <c r="J7" s="56" t="str">
-        <f t="shared" ref="J7:J8" si="3" xml:space="preserve"> _xlfn.CONCAT("tong", F7)</f>
-        <v>tong/</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="M7" s="46">
-        <f t="shared" si="0"/>
-        <v>780</v>
-      </c>
-      <c r="N7" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>ǒ</v>
-      </c>
-      <c r="O7" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>tǒng</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="57.75">
-      <c r="B8" s="54">
-        <v>7</v>
-      </c>
-      <c r="C8" s="52">
-        <v>22</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="I8" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
-        <v>tōng</v>
-      </c>
-      <c r="J8" s="56" t="str">
-        <f t="shared" si="3"/>
-        <v>tong-</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="M8" s="46">
-        <f t="shared" si="0"/>
-        <v>772</v>
-      </c>
-      <c r="N8" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>ō</v>
-      </c>
-      <c r="O8" s="46" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
-        <v>tōng</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="57.75">
-      <c r="B9" s="54">
-        <v>8</v>
-      </c>
-      <c r="C9" s="52">
-        <v>121</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030D",4))), "k"), "")</f>
-        <v>to̍k</v>
-      </c>
-      <c r="J9" s="56" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("tok", F9)</f>
-        <v>tok]</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="M9" s="46">
-        <f t="shared" si="0"/>
-        <v>781</v>
-      </c>
-      <c r="N9" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>o̍</v>
-      </c>
-      <c r="O9" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>to̍ng</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="57.75">
-      <c r="B10" s="54">
-        <v>0</v>
-      </c>
-      <c r="C10" s="52">
-        <v>2</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="F10" s="57">
-        <v>7</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="I10" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("a", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030A",4))), "h"), "")</f>
-        <v>åh</v>
-      </c>
-      <c r="J10" s="56" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("a", F10)</f>
-        <v>a7</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="46">
-        <f t="shared" si="0"/>
-        <v>779</v>
-      </c>
-      <c r="N10" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>ő</v>
-      </c>
-      <c r="O10" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>tőng</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="57.75">
-      <c r="B14" s="54">
-        <v>6</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030C",4))), "ng"), "")</f>
-        <v>tǒng</v>
-      </c>
-      <c r="J14" s="56"/>
-    </row>
-    <row r="15" spans="2:15" ht="57.75">
-      <c r="B15" s="54">
-        <v>9</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030B",4))), "ng"), "")</f>
-        <v>tőng</v>
-      </c>
-      <c r="J15" s="56"/>
-    </row>
-    <row r="18" spans="2:10" ht="57.75" outlineLevel="1">
-      <c r="B18" s="9">
-        <v>4</v>
-      </c>
-      <c r="C18" s="10">
-        <v>53</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="11" t="str">
-        <f xml:space="preserve"> "dong" &amp; J18</f>
-        <v>dong6</v>
-      </c>
-      <c r="J18" s="10">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" display="https://zi-hi.com/sp/uni/0301" xr:uid="{0A4706D1-84DC-4182-A96A-35027C3F443C}"/>
-    <hyperlink ref="L4" r:id="rId2" display="https://zi-hi.com/sp/uni/0300" xr:uid="{CA7CE6B9-ACB2-4BD4-8CCD-9F323F16DB19}"/>
-    <hyperlink ref="L6" r:id="rId3" display="https://zi-hi.com/sp/uni/0302" xr:uid="{F51ED1B0-F464-4664-949A-2BF6E8D92207}"/>
-    <hyperlink ref="L7" r:id="rId4" display="https://zi-hi.com/sp/uni/030C" xr:uid="{A13388BA-C8A0-49CD-AD7D-92E78949E725}"/>
-    <hyperlink ref="L8" r:id="rId5" display="https://zi-hi.com/sp/uni/0304" xr:uid="{7DCF3A33-F3D8-4D15-8566-6580CE02AB86}"/>
-    <hyperlink ref="L9" r:id="rId6" display="https://zi-hi.com/sp/uni/030D" xr:uid="{89C45CD8-4919-45C7-BEF4-7CAB5797EF54}"/>
-    <hyperlink ref="L10" r:id="rId7" display="https://zi-hi.com/sp/uni/030B" xr:uid="{EC0523CB-79C1-4D03-88B1-0D58C6FCDA18}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045723BE-64D2-4E8C-B115-C260854DB41D}">
-  <dimension ref="B2:R18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15" customWidth="1"/>
-    <col min="13" max="13" width="15.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:18" ht="25.5">
-      <c r="B2" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="57.75">
-      <c r="B3" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
-        <v>tōng</v>
-      </c>
-      <c r="D3" s="56" t="str">
-        <f xml:space="preserve"> "tong" &amp; I3</f>
-        <v>tong1</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="52">
-        <v>44</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="I3" s="54">
-        <v>1</v>
-      </c>
-      <c r="J3" s="52">
-        <v>1</v>
-      </c>
-      <c r="K3" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="P3" s="46">
-        <f xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(O3,4)), "")</f>
-        <v>769</v>
-      </c>
-      <c r="Q3" s="46" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(O3,4)))), "")</f>
-        <v>ó</v>
-      </c>
-      <c r="R3" s="46" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(O3,4))), "ng"), "")</f>
-        <v>tóng</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="57.75">
-      <c r="B4" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "ng"), "")</f>
-        <v>tóng</v>
-      </c>
-      <c r="D4" s="56" t="str">
-        <f xml:space="preserve"> "tong" &amp; I4</f>
-        <v>tong2</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="52">
-        <v>13</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="54">
-        <v>2</v>
-      </c>
-      <c r="J4" s="52">
-        <v>5</v>
-      </c>
-      <c r="K4" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="P4" s="46">
-        <f t="shared" ref="P4:P10" si="0" xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(O4,4)), "")</f>
-        <v>768</v>
-      </c>
-      <c r="Q4" s="46" t="str">
-        <f t="shared" ref="Q4:Q10" si="1" xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(O4,4)))), "")</f>
-        <v>ò</v>
-      </c>
-      <c r="R4" s="46" t="str">
-        <f t="shared" ref="R4:R10" si="2" xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(O4,4))), "ng"), "")</f>
-        <v>tòng</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="57.75">
-      <c r="B5" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030C",4))), "ng"), "")</f>
-        <v>tǒng</v>
-      </c>
-      <c r="D5" s="56" t="str">
-        <f xml:space="preserve"> "tong" &amp; I5</f>
-        <v>tong3</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="52">
-        <v>53</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="54">
-        <v>3</v>
-      </c>
-      <c r="J5" s="52">
-        <v>2</v>
-      </c>
-      <c r="K5" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q5" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R5" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="2:18" ht="57.75">
-      <c r="B6" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0300",4))), "ng"), "")</f>
-        <v>tòng</v>
-      </c>
-      <c r="D6" s="56" t="str">
-        <f xml:space="preserve"> "tong" &amp; I6</f>
-        <v>tong5</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="52">
-        <v>21</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="54">
-        <v>5</v>
-      </c>
-      <c r="J6" s="52">
-        <v>3</v>
-      </c>
-      <c r="K6" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="O6" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="P6" s="46">
-        <f t="shared" si="0"/>
-        <v>770</v>
-      </c>
-      <c r="Q6" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>ô</v>
-      </c>
-      <c r="R6" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>tông</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="57.75">
-      <c r="B7" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0302",4))), "ng"), "")</f>
-        <v>tông</v>
-      </c>
-      <c r="D7" s="56" t="str">
-        <f xml:space="preserve"> "tong" &amp; I7</f>
-        <v>tong6</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="52">
-        <v>22</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="54">
-        <v>6</v>
-      </c>
-      <c r="J7" s="52">
-        <v>7</v>
-      </c>
-      <c r="K7" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="O7" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="P7" s="46">
-        <f t="shared" si="0"/>
-        <v>780</v>
-      </c>
-      <c r="Q7" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>ǒ</v>
-      </c>
-      <c r="R7" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>tǒng</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" ht="57.75">
-      <c r="B8" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "k"), "")</f>
-        <v>tōk</v>
-      </c>
-      <c r="D8" s="56" t="str">
-        <f xml:space="preserve"> "tong" &amp; I8</f>
-        <v>tong7</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="52">
-        <v>32</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="54">
-        <v>7</v>
-      </c>
-      <c r="J8" s="52">
-        <v>4</v>
-      </c>
-      <c r="K8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="P8" s="46">
-        <f t="shared" si="0"/>
-        <v>772</v>
-      </c>
-      <c r="Q8" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>ō</v>
-      </c>
-      <c r="R8" s="46" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
-        <v>tōng</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="57.75">
-      <c r="B9" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "k"), "")</f>
-        <v>tók</v>
-      </c>
-      <c r="D9" s="56" t="str">
-        <f xml:space="preserve"> "tong" &amp; I9</f>
-        <v>tong8</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="52">
-        <v>121</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="54">
-        <v>8</v>
-      </c>
-      <c r="J9" s="52">
-        <v>8</v>
-      </c>
-      <c r="K9" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="O9" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="P9" s="46">
-        <f t="shared" si="0"/>
-        <v>781</v>
-      </c>
-      <c r="Q9" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>o̍</v>
-      </c>
-      <c r="R9" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>to̍ng</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="42">
-      <c r="M10" t="s">
-        <v>198</v>
-      </c>
-      <c r="O10" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="P10" s="46">
-        <f t="shared" si="0"/>
-        <v>779</v>
-      </c>
-      <c r="Q10" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>ő</v>
-      </c>
-      <c r="R10" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>tőng</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="57.75" outlineLevel="1">
-      <c r="B18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="11" t="str">
-        <f xml:space="preserve"> "dong" &amp; J18</f>
-        <v>dong6</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10">
-        <v>53</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="9">
-        <v>4</v>
-      </c>
-      <c r="J18" s="10">
-        <v>6</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1" display="https://zi-hi.com/sp/uni/0301" xr:uid="{F092E75C-C8D0-48B8-A292-3DC2F44B85AC}"/>
-    <hyperlink ref="O4" r:id="rId2" display="https://zi-hi.com/sp/uni/0300" xr:uid="{E1710BC5-4279-4535-9126-EE2877167999}"/>
-    <hyperlink ref="O6" r:id="rId3" display="https://zi-hi.com/sp/uni/0302" xr:uid="{B66FC17B-A908-40F7-9A0F-4BA79BCD69B1}"/>
-    <hyperlink ref="O7" r:id="rId4" display="https://zi-hi.com/sp/uni/030C" xr:uid="{D42FA3A9-247B-464A-9466-62E1F31ACDF2}"/>
-    <hyperlink ref="O8" r:id="rId5" display="https://zi-hi.com/sp/uni/0304" xr:uid="{AE4AB8CC-8DD7-4CAE-8E5E-7B1A59D6EBBB}"/>
-    <hyperlink ref="O9" r:id="rId6" display="https://zi-hi.com/sp/uni/030D" xr:uid="{93783542-812A-404B-A549-F62CA5246808}"/>
-    <hyperlink ref="O10" r:id="rId7" display="https://zi-hi.com/sp/uni/030B" xr:uid="{1BB8526F-4E34-4DCA-B783-A0AA70BDD520}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71574A8B-8D3F-4AFC-B56E-E3C6E782C4A4}">
-  <dimension ref="B2:L18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" ht="25.5">
-      <c r="B2" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="65.25">
-      <c r="B3" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="16" t="str">
-        <f xml:space="preserve"> "tong" &amp; I3</f>
-        <v>tong1</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="7">
-        <v>44</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
-        <v>1</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="65.25">
-      <c r="B4" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17" t="str">
-        <f t="shared" ref="D4:D7" si="0" xml:space="preserve"> "tong" &amp; I4</f>
-        <v>tong7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2">
-        <v>6</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="65.25">
-      <c r="B5" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>tong3</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7">
-        <v>21</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3</v>
-      </c>
-      <c r="J5" s="6">
-        <v>5</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="65.25">
-      <c r="B6" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="17" t="str">
-        <f xml:space="preserve"> "tong" &amp; I6</f>
-        <v>tong2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3">
-        <v>53</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="65.25">
-      <c r="B7" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>tong5</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5</v>
-      </c>
-      <c r="J7" s="6">
-        <v>2</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="65.25">
-      <c r="B8" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3">
-        <v>32</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4</v>
-      </c>
-      <c r="J8" s="2">
-        <v>7</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="65.25">
-      <c r="B9" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>121</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>8</v>
-      </c>
-      <c r="J9" s="6">
-        <v>8</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="L10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="57.75" outlineLevel="1">
-      <c r="B18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="11" t="str">
-        <f xml:space="preserve"> "dong" &amp; I18</f>
-        <v>dong6</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10">
-        <v>53</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="10">
-        <v>6</v>
-      </c>
-      <c r="J18" s="9">
-        <v>4</v>
-      </c>
-      <c r="L18" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8BB3E1-D1E0-449D-ACB7-CFE9630C3C54}">
   <dimension ref="B1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T10" sqref="P3:T10"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30"/>
   <cols>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="10" width="13" customWidth="1"/>
-    <col min="13" max="13" width="9" style="46"/>
+    <col min="13" max="13" width="9" style="39"/>
     <col min="16" max="16" width="9.125" customWidth="1"/>
-    <col min="17" max="19" width="13.375" style="47" customWidth="1"/>
+    <col min="17" max="19" width="13.375" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19">
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="2:19">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="34">
         <v>2</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="34">
         <v>3</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="34">
         <v>4</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="34">
         <v>5</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="34">
         <v>6</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="34">
         <v>7</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="34">
         <v>8</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="34">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="42">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="39">
         <f xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(P3,4)), "")</f>
         <v>769</v>
       </c>
-      <c r="R3" s="46" t="str">
+      <c r="R3" s="39" t="str">
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(P3,4)))), "")</f>
         <v>ó</v>
       </c>
-      <c r="S3" s="46" t="str">
+      <c r="S3" s="39" t="str">
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(P3,4))), "ng"), "")</f>
         <v>tóng</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="42">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
-      <c r="P4" s="38" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="65"/>
+      <c r="P4" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="Q4" s="39">
         <f t="shared" ref="Q4:Q10" si="0" xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(P4,4)), "")</f>
         <v>768</v>
       </c>
-      <c r="R4" s="46" t="str">
+      <c r="R4" s="39" t="str">
         <f t="shared" ref="R4:R10" si="1" xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(P4,4)))), "")</f>
         <v>ò</v>
       </c>
-      <c r="S4" s="46" t="str">
+      <c r="S4" s="39" t="str">
         <f t="shared" ref="S4:S10" si="2" xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(P4,4))), "ng"), "")</f>
         <v>tòng</v>
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="38" t="s">
         <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>190</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="39">
         <f xml:space="preserve"> HEX2DEC(RIGHT(C3,4))</f>
         <v>769</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="46" t="str">
+      <c r="Q5" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R5" s="46" t="str">
+      <c r="R5" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S5" s="46" t="str">
+      <c r="S5" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="2:19" ht="42">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="38" t="s">
         <v>62</v>
       </c>
       <c r="L6" t="s">
         <v>191</v>
       </c>
-      <c r="M6" s="46" t="str">
+      <c r="M6" s="39" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("a", _xlfn.UNICHAR(M5))</f>
         <v>á</v>
       </c>
-      <c r="P6" s="38" t="s">
+      <c r="P6" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="39">
         <f t="shared" si="0"/>
         <v>770</v>
       </c>
-      <c r="R6" s="46" t="str">
+      <c r="R6" s="39" t="str">
         <f t="shared" si="1"/>
         <v>ô</v>
       </c>
-      <c r="S6" s="46" t="str">
+      <c r="S6" s="39" t="str">
         <f t="shared" si="2"/>
         <v>tông</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="42">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="39">
         <f t="shared" si="0"/>
         <v>780</v>
       </c>
-      <c r="R7" s="46" t="str">
+      <c r="R7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>ǒ</v>
       </c>
-      <c r="S7" s="46" t="str">
+      <c r="S7" s="39" t="str">
         <f t="shared" si="2"/>
         <v>tǒng</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="42">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="M8" s="46" t="str">
+      <c r="M8" s="39" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(M5), "ng")</f>
         <v>tóng</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="39">
         <f t="shared" si="0"/>
         <v>772</v>
       </c>
-      <c r="R8" s="46" t="str">
+      <c r="R8" s="39" t="str">
         <f t="shared" si="1"/>
         <v>ō</v>
       </c>
-      <c r="S8" s="46" t="str">
+      <c r="S8" s="39" t="str">
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
         <v>tōng</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="42">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="39">
         <f t="shared" si="0"/>
         <v>781</v>
       </c>
-      <c r="R9" s="46" t="str">
+      <c r="R9" s="39" t="str">
         <f t="shared" si="1"/>
         <v>o̍</v>
       </c>
-      <c r="S9" s="46" t="str">
+      <c r="S9" s="39" t="str">
         <f t="shared" si="2"/>
         <v>to̍ng</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="42">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="P10" s="38" t="s">
+      <c r="P10" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="39">
         <f t="shared" si="0"/>
         <v>779</v>
       </c>
-      <c r="R10" s="46" t="str">
+      <c r="R10" s="39" t="str">
         <f t="shared" si="1"/>
         <v>ő</v>
       </c>
-      <c r="S10" s="46" t="str">
+      <c r="S10" s="39" t="str">
         <f t="shared" si="2"/>
         <v>tőng</v>
       </c>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="38" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="38" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="38" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="38" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="37" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="37" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="38" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16402,7 +15048,2752 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8264B7F8-EC6F-425C-A778-2C680D504D26}">
+  <dimension ref="B2:O18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="25.5">
+      <c r="B2" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="57.75">
+      <c r="B3" s="47">
+        <v>1</v>
+      </c>
+      <c r="C3" s="45">
+        <v>44</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
+        <v>tōng</v>
+      </c>
+      <c r="J3" s="49" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tong", F3)</f>
+        <v>tong;</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="39">
+        <f xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(L3,4)), "")</f>
+        <v>769</v>
+      </c>
+      <c r="N3" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L3,4)))), "")</f>
+        <v>ó</v>
+      </c>
+      <c r="O3" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L3,4))), "ng"), "")</f>
+        <v>tóng</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="57.75">
+      <c r="B4" s="51">
+        <v>2</v>
+      </c>
+      <c r="C4" s="52">
+        <v>13</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "ng"), "")</f>
+        <v>tóng</v>
+      </c>
+      <c r="J4" s="56" t="str">
+        <f t="shared" ref="J4:J7" si="0" xml:space="preserve"> _xlfn.CONCAT("tong", F4)</f>
+        <v>tong/</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" s="39">
+        <f t="shared" ref="M4:M10" si="1" xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(L4,4)), "")</f>
+        <v>768</v>
+      </c>
+      <c r="N4" s="39" t="str">
+        <f t="shared" ref="N4:N10" si="2" xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L4,4)))), "")</f>
+        <v>ò</v>
+      </c>
+      <c r="O4" s="39" t="str">
+        <f t="shared" ref="O4:O10" si="3" xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L4,4))), "ng"), "")</f>
+        <v>tòng</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="57.75">
+      <c r="B5" s="47">
+        <v>3</v>
+      </c>
+      <c r="C5" s="45">
+        <v>53</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030C",4))), "ng"), "")</f>
+        <v>tǒng</v>
+      </c>
+      <c r="J5" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>tong\</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N5" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O5" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="57.75">
+      <c r="B6" s="51">
+        <v>5</v>
+      </c>
+      <c r="C6" s="52">
+        <v>21</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0300",4))), "ng"), "")</f>
+        <v>tòng</v>
+      </c>
+      <c r="J6" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>tong_</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" s="39">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="N6" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>ô</v>
+      </c>
+      <c r="O6" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>tông</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="57.75">
+      <c r="B7" s="47">
+        <v>6</v>
+      </c>
+      <c r="C7" s="45">
+        <v>22</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0302",4))), "ng"), "")</f>
+        <v>tông</v>
+      </c>
+      <c r="J7" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>tong-</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="M7" s="39">
+        <f t="shared" si="1"/>
+        <v>780</v>
+      </c>
+      <c r="N7" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>ǒ</v>
+      </c>
+      <c r="O7" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>tǒng</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="57.75">
+      <c r="B8" s="51">
+        <v>7</v>
+      </c>
+      <c r="C8" s="52">
+        <v>32</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "k"), "")</f>
+        <v>tōk</v>
+      </c>
+      <c r="J8" s="56" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tok", F8)</f>
+        <v>tok[</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="M8" s="39">
+        <f t="shared" si="1"/>
+        <v>772</v>
+      </c>
+      <c r="N8" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>ō</v>
+      </c>
+      <c r="O8" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
+        <v>tōng</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="57.75">
+      <c r="B9" s="47">
+        <v>8</v>
+      </c>
+      <c r="C9" s="45">
+        <v>121</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "k"), "")</f>
+        <v>tók</v>
+      </c>
+      <c r="J9" s="49" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tok", F9)</f>
+        <v>tok]</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" s="39">
+        <f t="shared" si="1"/>
+        <v>781</v>
+      </c>
+      <c r="N9" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>o̍</v>
+      </c>
+      <c r="O9" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>to̍ng</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="42">
+      <c r="L10" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="39">
+        <f t="shared" si="1"/>
+        <v>779</v>
+      </c>
+      <c r="N10" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>ő</v>
+      </c>
+      <c r="O10" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>tőng</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="57.75" outlineLevel="1">
+      <c r="B18" s="9">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10">
+        <v>53</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="11" t="str">
+        <f xml:space="preserve"> "dong" &amp; J18</f>
+        <v>dong6</v>
+      </c>
+      <c r="J18" s="10">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1" display="https://zi-hi.com/sp/uni/0301" xr:uid="{04B8C98D-F169-4293-98FF-A169289A30B8}"/>
+    <hyperlink ref="L4" r:id="rId2" display="https://zi-hi.com/sp/uni/0300" xr:uid="{164A5C7C-0930-406F-8911-B14C8B68FEB2}"/>
+    <hyperlink ref="L6" r:id="rId3" display="https://zi-hi.com/sp/uni/0302" xr:uid="{054188C0-C2E4-4E26-819B-D1BC7F53A240}"/>
+    <hyperlink ref="L7" r:id="rId4" display="https://zi-hi.com/sp/uni/030C" xr:uid="{EADE347E-F69C-41CA-8055-93A08EA6B08A}"/>
+    <hyperlink ref="L8" r:id="rId5" display="https://zi-hi.com/sp/uni/0304" xr:uid="{253F7A72-1E1E-44A5-8B9C-137C6D2B9AA1}"/>
+    <hyperlink ref="L9" r:id="rId6" display="https://zi-hi.com/sp/uni/030D" xr:uid="{F842F116-D33E-49E6-9149-1B6667AAC917}"/>
+    <hyperlink ref="L10" r:id="rId7" display="https://zi-hi.com/sp/uni/030B" xr:uid="{39F28880-C71D-4A85-9BBE-350E7DDA4969}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65102ED-9A65-4E94-A488-809467BC273C}">
+  <dimension ref="B2:T11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="18" max="18" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" ht="25.5">
+      <c r="B2" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="45">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="77">
+        <v>44</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" s="72" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(H3, E3)</f>
+        <v>ㄊㆲ'</v>
+      </c>
+      <c r="K3" s="76" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))))</f>
+        <v>ㄚ̄</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="N3" s="39">
+        <f xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(M3,4)), "")</f>
+        <v>769</v>
+      </c>
+      <c r="O3" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(M3,4)))), "")</f>
+        <v>ó</v>
+      </c>
+      <c r="P3" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(M3,4))), "ng"), "")</f>
+        <v>tóng</v>
+      </c>
+      <c r="R3" s="76" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT( LEFT(C3,2), " ", K3,)</f>
+        <v>陰平 ㄚ̄</v>
+      </c>
+      <c r="T3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="45">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="80">
+        <v>13</v>
+      </c>
+      <c r="E4" s="81">
+        <v>6</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" s="74" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT( LEFT( H4, LEN(H4)-1), E4)</f>
+        <v>ㄊㆲ6</v>
+      </c>
+      <c r="K4" s="76" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))))</f>
+        <v>ㄚ́</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" s="39">
+        <f t="shared" ref="N4:N10" si="0" xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(M4,4)), "")</f>
+        <v>768</v>
+      </c>
+      <c r="O4" s="39" t="str">
+        <f t="shared" ref="O4:O10" si="1" xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(M4,4)))), "")</f>
+        <v>ò</v>
+      </c>
+      <c r="P4" s="39" t="str">
+        <f t="shared" ref="P4:P10" si="2" xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(M4,4))), "ng"), "")</f>
+        <v>tòng</v>
+      </c>
+      <c r="R4" s="76" t="str">
+        <f t="shared" ref="R4:R11" si="3" xml:space="preserve"> _xlfn.CONCAT( LEFT(C4,2), " ", K4,)</f>
+        <v>陽平 ㄚ́</v>
+      </c>
+      <c r="T4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="45">
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="77">
+        <v>53</v>
+      </c>
+      <c r="E5" s="78">
+        <v>4</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="I5" s="75" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT( LEFT( H5, LEN(H5)-1), E5)</f>
+        <v>ㄊㆲ4</v>
+      </c>
+      <c r="K5" s="76" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+030C",4))))</f>
+        <v>ㄚ̌</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="39">
+        <f t="shared" si="0"/>
+        <v>781</v>
+      </c>
+      <c r="O5" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>o̍</v>
+      </c>
+      <c r="P5" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>to̍ng</v>
+      </c>
+      <c r="R5" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>陰上 ㄚ̌</v>
+      </c>
+      <c r="T5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="45">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="84"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="I6" s="74" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(H6, E6)</f>
+        <v>ㄊㆲˋ</v>
+      </c>
+      <c r="K6" s="76" t="str">
+        <f t="shared" ref="K5:K8" si="4" xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))))</f>
+        <v>ㄚ̄</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6" s="39">
+        <f t="shared" si="0"/>
+        <v>770</v>
+      </c>
+      <c r="O6" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>ô</v>
+      </c>
+      <c r="P6" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>tông</v>
+      </c>
+      <c r="R6" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>陽上 ㄚ̄</v>
+      </c>
+      <c r="T6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="45">
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="77">
+        <v>21</v>
+      </c>
+      <c r="E7" s="78">
+        <v>3</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="I7" s="75" t="str">
+        <f t="shared" ref="I7:I10" si="5" xml:space="preserve"> _xlfn.CONCAT( LEFT( H7, LEN(H7)-1), E7)</f>
+        <v>ㄊㆲ3</v>
+      </c>
+      <c r="K7" s="76" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0300",4))))</f>
+        <v>ㄚ̀</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="N7" s="39">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+      <c r="O7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>ǒ</v>
+      </c>
+      <c r="P7" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>tǒng</v>
+      </c>
+      <c r="R7" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>陰去 ㄚ̀</v>
+      </c>
+      <c r="T7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="45">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="80">
+        <v>22</v>
+      </c>
+      <c r="E8" s="81">
+        <v>5</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="I8" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>ㄊㆲ5</v>
+      </c>
+      <c r="K8" s="76" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0302",4))))</f>
+        <v>ㄚ̂</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="N8" s="39">
+        <f t="shared" si="0"/>
+        <v>772</v>
+      </c>
+      <c r="O8" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>ō</v>
+      </c>
+      <c r="P8" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
+        <v>tōng</v>
+      </c>
+      <c r="R8" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>陽去 ㄚ̂</v>
+      </c>
+      <c r="T8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="45">
+      <c r="B9" s="12">
+        <v>7</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="77">
+        <v>32</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="I9" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>ㄊㆦ[</v>
+      </c>
+      <c r="K9" s="76" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ", "ㆷ", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))))</f>
+        <v>ㄚㆷ̄</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="N9" s="39">
+        <f t="shared" si="0"/>
+        <v>781</v>
+      </c>
+      <c r="O9" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>o̍</v>
+      </c>
+      <c r="P9" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>to̍ng</v>
+      </c>
+      <c r="R9" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>陰入 ㄚㆷ̄</v>
+      </c>
+      <c r="T9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="45">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="80">
+        <v>121</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="I10" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>ㄊㆦㆻ]</v>
+      </c>
+      <c r="K10" s="76" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ", "ㆷ", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))))</f>
+        <v>ㄚㆷ́</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="39">
+        <f t="shared" si="0"/>
+        <v>779</v>
+      </c>
+      <c r="O10" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>ő</v>
+      </c>
+      <c r="P10" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>tőng</v>
+      </c>
+      <c r="R10" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>陽入 ㄚㆷ́</v>
+      </c>
+      <c r="T10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="45">
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="77">
+        <v>2</v>
+      </c>
+      <c r="E11" s="78">
+        <v>7</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>260</v>
+      </c>
+      <c r="I11" s="75" t="str">
+        <f t="shared" ref="I11" si="6" xml:space="preserve"> _xlfn.CONCAT( LEFT( H11, LEN(H11)-1), E11)</f>
+        <v>ㄚㆷ7</v>
+      </c>
+      <c r="K11" s="76" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ", "ㆷ", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+02D9",4))))</f>
+        <v>ㄚㆷ˙</v>
+      </c>
+      <c r="R11" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>輕聲 ㄚㆷ˙</v>
+      </c>
+      <c r="T11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1" display="https://zi-hi.com/sp/uni/0301" xr:uid="{09B4369C-09F5-493D-97DE-F2132117D92D}"/>
+    <hyperlink ref="M4" r:id="rId2" display="https://zi-hi.com/sp/uni/0300" xr:uid="{C7674C4A-D199-49E9-89AC-4C0FC2F02CEE}"/>
+    <hyperlink ref="M6" r:id="rId3" display="https://zi-hi.com/sp/uni/0302" xr:uid="{1FAAC11D-0453-47CE-80B4-CC8B31B5FD55}"/>
+    <hyperlink ref="M7" r:id="rId4" display="https://zi-hi.com/sp/uni/030C" xr:uid="{6AFE2CB8-2C9D-44DF-8BC8-63ABD97F88D6}"/>
+    <hyperlink ref="M8" r:id="rId5" display="https://zi-hi.com/sp/uni/0304" xr:uid="{65EAC2D0-F4FC-426B-B86A-777DA20CFD70}"/>
+    <hyperlink ref="M9" r:id="rId6" display="https://zi-hi.com/sp/uni/030D" xr:uid="{390B647D-29B8-49F1-8F25-9860E0CA47F9}"/>
+    <hyperlink ref="M10" r:id="rId7" display="https://zi-hi.com/sp/uni/030B" xr:uid="{B8093843-7A9F-42E9-B983-E082C50B2D11}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71574A8B-8D3F-4AFC-B56E-E3C6E782C4A4}">
+  <dimension ref="B2:L18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="25.5">
+      <c r="B2" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="65.25">
+      <c r="B3" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="str">
+        <f xml:space="preserve"> "tong" &amp; I3</f>
+        <v>tong1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="7">
+        <v>44</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="65.25">
+      <c r="B4" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="17" t="str">
+        <f t="shared" ref="D4:D7" si="0" xml:space="preserve"> "tong" &amp; I4</f>
+        <v>tong7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>6</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="65.25">
+      <c r="B5" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>tong3</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="65.25">
+      <c r="B6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="17" t="str">
+        <f xml:space="preserve"> "tong" &amp; I6</f>
+        <v>tong2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3">
+        <v>53</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="65.25">
+      <c r="B7" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>tong5</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="65.25">
+      <c r="B8" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2">
+        <v>7</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="65.25">
+      <c r="B9" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>121</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6">
+        <v>8</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="L10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="57.75" outlineLevel="1">
+      <c r="B18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="11" t="str">
+        <f xml:space="preserve"> "dong" &amp; I18</f>
+        <v>dong6</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10">
+        <v>53</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="10">
+        <v>6</v>
+      </c>
+      <c r="J18" s="9">
+        <v>4</v>
+      </c>
+      <c r="L18" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A17A80-03F8-423A-8766-B16781C638F3}">
+  <dimension ref="B2:V11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.5" customWidth="1"/>
+    <col min="19" max="19" width="22.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="25.5">
+      <c r="B2" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="45">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="77">
+        <v>44</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" s="72" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(H3, E3)</f>
+        <v>ㄊㆲ'</v>
+      </c>
+      <c r="K3" s="76" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))))</f>
+        <v>ㄚ̄</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="N3" s="39">
+        <f xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(M3,4)), "")</f>
+        <v>769</v>
+      </c>
+      <c r="O3" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(M3,4)))), "")</f>
+        <v>ó</v>
+      </c>
+      <c r="P3" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(M3,4))), "ng"), "")</f>
+        <v>tóng</v>
+      </c>
+      <c r="S3" s="82" t="s">
+        <v>249</v>
+      </c>
+      <c r="T3" s="82"/>
+      <c r="U3" s="76" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("ㄚ", "ㆷ", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+02D9",4)))), "")</f>
+        <v>ㄚㆷ˙</v>
+      </c>
+      <c r="V3" s="82"/>
+    </row>
+    <row r="4" spans="2:22" ht="45">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="80">
+        <v>53</v>
+      </c>
+      <c r="E4" s="81">
+        <v>4</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="I4" s="74" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT( LEFT( H4, LEN(H4)-1), E4)</f>
+        <v>ㄊㆲ4</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" s="39">
+        <f t="shared" ref="N4:N10" si="0" xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(M4,4)), "")</f>
+        <v>768</v>
+      </c>
+      <c r="O4" s="39" t="str">
+        <f t="shared" ref="O4:O10" si="1" xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(M4,4)))), "")</f>
+        <v>ò</v>
+      </c>
+      <c r="P4" s="39" t="str">
+        <f t="shared" ref="P4:P10" si="2" xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(M4,4))), "ng"), "")</f>
+        <v>tòng</v>
+      </c>
+      <c r="S4" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="T4" s="82" t="s">
+        <v>250</v>
+      </c>
+      <c r="U4" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="V4" s="82" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="45">
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="77">
+        <v>21</v>
+      </c>
+      <c r="E5" s="78">
+        <v>3</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="75" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT( LEFT( H5, LEN(H5)-1), E5)</f>
+        <v>ㄊㆲ3</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="39">
+        <f t="shared" si="0"/>
+        <v>781</v>
+      </c>
+      <c r="O5" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>o̍</v>
+      </c>
+      <c r="P5" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>to̍ng</v>
+      </c>
+      <c r="S5" s="82" t="s">
+        <v>238</v>
+      </c>
+      <c r="T5" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="U5" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="V5" s="82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="45">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="80">
+        <v>32</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" s="74" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(H6, E6)</f>
+        <v>ㄊㆦㆻ[</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6" s="39">
+        <f t="shared" si="0"/>
+        <v>770</v>
+      </c>
+      <c r="O6" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>ô</v>
+      </c>
+      <c r="P6" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>tông</v>
+      </c>
+      <c r="S6" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="T6" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="U6" s="82" t="s">
+        <v>241</v>
+      </c>
+      <c r="V6" s="82" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="45">
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="77">
+        <v>13</v>
+      </c>
+      <c r="E7" s="78">
+        <v>6</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="75" t="str">
+        <f t="shared" ref="I7:I11" si="3" xml:space="preserve"> _xlfn.CONCAT( LEFT( H7, LEN(H7)-1), E7)</f>
+        <v>ㄊㆲ6</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="N7" s="39">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+      <c r="O7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>ǒ</v>
+      </c>
+      <c r="P7" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>tǒng</v>
+      </c>
+      <c r="S7" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="U7" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="V7" s="82"/>
+    </row>
+    <row r="8" spans="2:22" ht="45">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="I8" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄊㆲ</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="N8" s="39">
+        <f t="shared" si="0"/>
+        <v>772</v>
+      </c>
+      <c r="O8" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>ō</v>
+      </c>
+      <c r="P8" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
+        <v>tōng</v>
+      </c>
+      <c r="S8" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="82" t="s">
+        <v>255</v>
+      </c>
+      <c r="U8" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="V8" s="82"/>
+    </row>
+    <row r="9" spans="2:22" ht="45">
+      <c r="B9" s="12">
+        <v>7</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="77">
+        <v>22</v>
+      </c>
+      <c r="E9" s="78">
+        <v>5</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="75" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄊㆲ5</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="N9" s="39">
+        <f t="shared" si="0"/>
+        <v>781</v>
+      </c>
+      <c r="O9" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>o̍</v>
+      </c>
+      <c r="P9" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>to̍ng</v>
+      </c>
+      <c r="S9" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="82" t="s">
+        <v>256</v>
+      </c>
+      <c r="U9" s="82" t="s">
+        <v>245</v>
+      </c>
+      <c r="V9" s="82"/>
+    </row>
+    <row r="10" spans="2:22" ht="45">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="80">
+        <v>121</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="I10" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄊㆦㆻ]</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="39">
+        <f t="shared" si="0"/>
+        <v>779</v>
+      </c>
+      <c r="O10" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>ő</v>
+      </c>
+      <c r="P10" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>tőng</v>
+      </c>
+      <c r="S10" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="82" t="s">
+        <v>257</v>
+      </c>
+      <c r="U10" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="V10" s="82"/>
+    </row>
+    <row r="11" spans="2:22" ht="45">
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="77">
+        <v>2</v>
+      </c>
+      <c r="E11" s="78">
+        <v>7</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>260</v>
+      </c>
+      <c r="I11" s="75" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄚㆷ7</v>
+      </c>
+      <c r="K11" s="76" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ", "ㆷ", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+02D9",4))))</f>
+        <v>ㄚㆷ˙</v>
+      </c>
+      <c r="S11" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="U11" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="V11" s="82" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1" display="https://zi-hi.com/sp/uni/0301" xr:uid="{E53FE4A9-8C98-4EB7-BECA-CF85F7E6DF6C}"/>
+    <hyperlink ref="M4" r:id="rId2" display="https://zi-hi.com/sp/uni/0300" xr:uid="{58B59806-333F-404D-A1FE-98BF5ABD1B1E}"/>
+    <hyperlink ref="M6" r:id="rId3" display="https://zi-hi.com/sp/uni/0302" xr:uid="{DA11F8A5-DB21-4F7F-9B9F-8F27CFD4CE3D}"/>
+    <hyperlink ref="M7" r:id="rId4" display="https://zi-hi.com/sp/uni/030C" xr:uid="{01C08107-E3D2-4641-82A0-A309B28467F5}"/>
+    <hyperlink ref="M8" r:id="rId5" display="https://zi-hi.com/sp/uni/0304" xr:uid="{A30785C5-610F-4AA6-9A6B-A9A8D94B1583}"/>
+    <hyperlink ref="M9" r:id="rId6" display="https://zi-hi.com/sp/uni/030D" xr:uid="{02DFC5FA-25F8-44B6-8ED6-11E3747FE64A}"/>
+    <hyperlink ref="M10" r:id="rId7" display="https://zi-hi.com/sp/uni/030B" xr:uid="{D016CECA-BC79-4266-BA30-B2C800ABD3F2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC180E-22C7-41E3-9B1C-02C96E708532}">
+  <dimension ref="B2:O18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="25.5">
+      <c r="B2" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="57.75">
+      <c r="B3" s="47">
+        <v>1</v>
+      </c>
+      <c r="C3" s="45">
+        <v>44</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", "ng"), "")</f>
+        <v>tong</v>
+      </c>
+      <c r="J3" s="49" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tong", F3)</f>
+        <v>tong;</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="39">
+        <f xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(L3,4)), "")</f>
+        <v>769</v>
+      </c>
+      <c r="N3" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L3,4)))), "")</f>
+        <v>ó</v>
+      </c>
+      <c r="O3" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L3,4))), "ng"), "")</f>
+        <v>tóng</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="57.75">
+      <c r="B4" s="47">
+        <v>2</v>
+      </c>
+      <c r="C4" s="45">
+        <v>53</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "ng"), "")</f>
+        <v>tóng</v>
+      </c>
+      <c r="J4" s="49" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tong", F4)</f>
+        <v>tong\</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" s="39">
+        <f t="shared" ref="M4:M10" si="0" xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(L4,4)), "")</f>
+        <v>768</v>
+      </c>
+      <c r="N4" s="39" t="str">
+        <f t="shared" ref="N4:N10" si="1" xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L4,4)))), "")</f>
+        <v>ò</v>
+      </c>
+      <c r="O4" s="39" t="str">
+        <f t="shared" ref="O4:O10" si="2" xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L4,4))), "ng"), "")</f>
+        <v>tòng</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="57.75">
+      <c r="B5" s="47">
+        <v>3</v>
+      </c>
+      <c r="C5" s="45">
+        <v>21</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0300",4))), "ng"), "")</f>
+        <v>tòng</v>
+      </c>
+      <c r="J5" s="49" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tong", F5)</f>
+        <v>tong_</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="39">
+        <f t="shared" si="0"/>
+        <v>781</v>
+      </c>
+      <c r="N5" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>o̍</v>
+      </c>
+      <c r="O5" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>to̍ng</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="57.75">
+      <c r="B6" s="47">
+        <v>4</v>
+      </c>
+      <c r="C6" s="45">
+        <v>32</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", "k"), "")</f>
+        <v>tok</v>
+      </c>
+      <c r="J6" s="49" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tok", F6)</f>
+        <v>tok[</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" s="39">
+        <f t="shared" si="0"/>
+        <v>770</v>
+      </c>
+      <c r="N6" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>ô</v>
+      </c>
+      <c r="O6" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>tông</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="57.75">
+      <c r="B7" s="47">
+        <v>5</v>
+      </c>
+      <c r="C7" s="45">
+        <v>13</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0302",4))), "ng"), "")</f>
+        <v>tông</v>
+      </c>
+      <c r="J7" s="49" t="str">
+        <f t="shared" ref="J7:J8" si="3" xml:space="preserve"> _xlfn.CONCAT("tong", F7)</f>
+        <v>tong/</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="M7" s="39">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+      <c r="N7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>ǒ</v>
+      </c>
+      <c r="O7" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>tǒng</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="57.75">
+      <c r="B8" s="47">
+        <v>7</v>
+      </c>
+      <c r="C8" s="45">
+        <v>22</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
+        <v>tōng</v>
+      </c>
+      <c r="J8" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>tong-</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="M8" s="39">
+        <f t="shared" si="0"/>
+        <v>772</v>
+      </c>
+      <c r="N8" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>ō</v>
+      </c>
+      <c r="O8" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
+        <v>tōng</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="57.75">
+      <c r="B9" s="47">
+        <v>8</v>
+      </c>
+      <c r="C9" s="45">
+        <v>121</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030D",4))), "k"), "")</f>
+        <v>to̍k</v>
+      </c>
+      <c r="J9" s="49" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tok", F9)</f>
+        <v>tok]</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="M9" s="39">
+        <f t="shared" si="0"/>
+        <v>781</v>
+      </c>
+      <c r="N9" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>o̍</v>
+      </c>
+      <c r="O9" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>to̍ng</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="57.75">
+      <c r="B10" s="47">
+        <v>0</v>
+      </c>
+      <c r="C10" s="45">
+        <v>2</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="50">
+        <v>7</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="I10" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("a", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030A",4))), "h"), "")</f>
+        <v>åh</v>
+      </c>
+      <c r="J10" s="49" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("a", F10)</f>
+        <v>a7</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="39">
+        <f t="shared" si="0"/>
+        <v>779</v>
+      </c>
+      <c r="N10" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>ő</v>
+      </c>
+      <c r="O10" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>tőng</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="57.75">
+      <c r="B14" s="47">
+        <v>6</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030C",4))), "ng"), "")</f>
+        <v>tǒng</v>
+      </c>
+      <c r="J14" s="49"/>
+    </row>
+    <row r="15" spans="2:15" ht="57.75">
+      <c r="B15" s="47">
+        <v>9</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030B",4))), "ng"), "")</f>
+        <v>tőng</v>
+      </c>
+      <c r="J15" s="49"/>
+    </row>
+    <row r="18" spans="2:10" ht="57.75" outlineLevel="1">
+      <c r="B18" s="9">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10">
+        <v>53</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="11" t="str">
+        <f xml:space="preserve"> "dong" &amp; J18</f>
+        <v>dong6</v>
+      </c>
+      <c r="J18" s="10">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1" display="https://zi-hi.com/sp/uni/0301" xr:uid="{0A4706D1-84DC-4182-A96A-35027C3F443C}"/>
+    <hyperlink ref="L4" r:id="rId2" display="https://zi-hi.com/sp/uni/0300" xr:uid="{CA7CE6B9-ACB2-4BD4-8CCD-9F323F16DB19}"/>
+    <hyperlink ref="L6" r:id="rId3" display="https://zi-hi.com/sp/uni/0302" xr:uid="{F51ED1B0-F464-4664-949A-2BF6E8D92207}"/>
+    <hyperlink ref="L7" r:id="rId4" display="https://zi-hi.com/sp/uni/030C" xr:uid="{A13388BA-C8A0-49CD-AD7D-92E78949E725}"/>
+    <hyperlink ref="L8" r:id="rId5" display="https://zi-hi.com/sp/uni/0304" xr:uid="{7DCF3A33-F3D8-4D15-8566-6580CE02AB86}"/>
+    <hyperlink ref="L9" r:id="rId6" display="https://zi-hi.com/sp/uni/030D" xr:uid="{89C45CD8-4919-45C7-BEF4-7CAB5797EF54}"/>
+    <hyperlink ref="L10" r:id="rId7" display="https://zi-hi.com/sp/uni/030B" xr:uid="{EC0523CB-79C1-4D03-88B1-0D58C6FCDA18}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045723BE-64D2-4E8C-B115-C260854DB41D}">
+  <dimension ref="B2:R18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" ht="25.5">
+      <c r="B2" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="57.75">
+      <c r="B3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
+        <v>tōng</v>
+      </c>
+      <c r="D3" s="49" t="str">
+        <f t="shared" ref="D3:D9" si="0" xml:space="preserve"> "tong" &amp; I3</f>
+        <v>tong1</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="45">
+        <v>44</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" s="47">
+        <v>1</v>
+      </c>
+      <c r="J3" s="45">
+        <v>1</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="P3" s="39">
+        <f xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(O3,4)), "")</f>
+        <v>769</v>
+      </c>
+      <c r="Q3" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(O3,4)))), "")</f>
+        <v>ó</v>
+      </c>
+      <c r="R3" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(O3,4))), "ng"), "")</f>
+        <v>tóng</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="57.75">
+      <c r="B4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "ng"), "")</f>
+        <v>tóng</v>
+      </c>
+      <c r="D4" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>tong2</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="45">
+        <v>13</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="47">
+        <v>2</v>
+      </c>
+      <c r="J4" s="45">
+        <v>5</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="P4" s="39">
+        <f t="shared" ref="P4:P10" si="1" xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(O4,4)), "")</f>
+        <v>768</v>
+      </c>
+      <c r="Q4" s="39" t="str">
+        <f t="shared" ref="Q4:Q10" si="2" xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(O4,4)))), "")</f>
+        <v>ò</v>
+      </c>
+      <c r="R4" s="39" t="str">
+        <f t="shared" ref="R4:R10" si="3" xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(O4,4))), "ng"), "")</f>
+        <v>tòng</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="57.75">
+      <c r="B5" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030C",4))), "ng"), "")</f>
+        <v>tǒng</v>
+      </c>
+      <c r="D5" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>tong3</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="45">
+        <v>53</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="47">
+        <v>3</v>
+      </c>
+      <c r="J5" s="45">
+        <v>2</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q5" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R5" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="57.75">
+      <c r="B6" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0300",4))), "ng"), "")</f>
+        <v>tòng</v>
+      </c>
+      <c r="D6" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>tong5</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="45">
+        <v>21</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="47">
+        <v>5</v>
+      </c>
+      <c r="J6" s="45">
+        <v>3</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="P6" s="39">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="Q6" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>ô</v>
+      </c>
+      <c r="R6" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>tông</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="57.75">
+      <c r="B7" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0302",4))), "ng"), "")</f>
+        <v>tông</v>
+      </c>
+      <c r="D7" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>tong6</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="45">
+        <v>22</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="47">
+        <v>6</v>
+      </c>
+      <c r="J7" s="45">
+        <v>7</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="P7" s="39">
+        <f t="shared" si="1"/>
+        <v>780</v>
+      </c>
+      <c r="Q7" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>ǒ</v>
+      </c>
+      <c r="R7" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>tǒng</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="57.75">
+      <c r="B8" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "k"), "")</f>
+        <v>tōk</v>
+      </c>
+      <c r="D8" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>tong7</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="45">
+        <v>32</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="47">
+        <v>7</v>
+      </c>
+      <c r="J8" s="45">
+        <v>4</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="P8" s="39">
+        <f t="shared" si="1"/>
+        <v>772</v>
+      </c>
+      <c r="Q8" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>ō</v>
+      </c>
+      <c r="R8" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
+        <v>tōng</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="57.75">
+      <c r="B9" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "k"), "")</f>
+        <v>tók</v>
+      </c>
+      <c r="D9" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>tong8</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="45">
+        <v>121</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="47">
+        <v>8</v>
+      </c>
+      <c r="J9" s="45">
+        <v>8</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" s="39">
+        <f t="shared" si="1"/>
+        <v>781</v>
+      </c>
+      <c r="Q9" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>o̍</v>
+      </c>
+      <c r="R9" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>to̍ng</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="42">
+      <c r="M10" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="39">
+        <f t="shared" si="1"/>
+        <v>779</v>
+      </c>
+      <c r="Q10" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>ő</v>
+      </c>
+      <c r="R10" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>tőng</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="57.75" outlineLevel="1">
+      <c r="B18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="11" t="str">
+        <f xml:space="preserve"> "dong" &amp; J18</f>
+        <v>dong6</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10">
+        <v>53</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9">
+        <v>4</v>
+      </c>
+      <c r="J18" s="10">
+        <v>6</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O3" r:id="rId1" display="https://zi-hi.com/sp/uni/0301" xr:uid="{F092E75C-C8D0-48B8-A292-3DC2F44B85AC}"/>
+    <hyperlink ref="O4" r:id="rId2" display="https://zi-hi.com/sp/uni/0300" xr:uid="{E1710BC5-4279-4535-9126-EE2877167999}"/>
+    <hyperlink ref="O6" r:id="rId3" display="https://zi-hi.com/sp/uni/0302" xr:uid="{B66FC17B-A908-40F7-9A0F-4BA79BCD69B1}"/>
+    <hyperlink ref="O7" r:id="rId4" display="https://zi-hi.com/sp/uni/030C" xr:uid="{D42FA3A9-247B-464A-9466-62E1F31ACDF2}"/>
+    <hyperlink ref="O8" r:id="rId5" display="https://zi-hi.com/sp/uni/0304" xr:uid="{AE4AB8CC-8DD7-4CAE-8E5E-7B1A59D6EBBB}"/>
+    <hyperlink ref="O9" r:id="rId6" display="https://zi-hi.com/sp/uni/030D" xr:uid="{93783542-812A-404B-A549-F62CA5246808}"/>
+    <hyperlink ref="O10" r:id="rId7" display="https://zi-hi.com/sp/uni/030B" xr:uid="{1BB8526F-4E34-4DCA-B783-A0AA70BDD520}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1050C03-4A49-40F3-8140-C9DAF6B05C63}">
   <dimension ref="B2:I18"/>
   <sheetViews>
@@ -16420,10 +17811,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.5">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="14" t="s">
         <v>32</v>
       </c>
@@ -16664,12 +18055,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1566D659-7E1D-42E7-9495-78EC72F6C0D2}">
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
@@ -16683,10 +18074,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="25.5">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="14" t="s">
         <v>32</v>
       </c>

--- a/docs/聲調對照表.xlsx
+++ b/docs/聲調對照表.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\rime-bp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0673A7F-7E15-4FEC-AED6-B098F27304FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB78DAF-97DA-460A-8948-A1B0B8BB2ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30930" yWindow="630" windowWidth="34995" windowHeight="14310" tabRatio="818" activeTab="2" xr2:uid="{08BCE876-220B-4617-985F-BC533BEFAD68}"/>
+    <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" tabRatio="818" activeTab="1" xr2:uid="{08BCE876-220B-4617-985F-BC533BEFAD68}"/>
   </bookViews>
   <sheets>
     <sheet name="聲調符號表" sheetId="4" r:id="rId1"/>
     <sheet name="拚音聲調表（閩拚）" sheetId="1" r:id="rId2"/>
     <sheet name="注音聲調表（閩拚）" sheetId="9" r:id="rId3"/>
-    <sheet name="拚音聲調表 (台語音標)" sheetId="5" r:id="rId4"/>
-    <sheet name="注音聲調表（台語音標）" sheetId="8" r:id="rId5"/>
-    <sheet name="聲調對照表（台語音標）" sheetId="7" r:id="rId6"/>
+    <sheet name="注音聲調表（台語音標）" sheetId="8" r:id="rId4"/>
+    <sheet name="聲調對照表（台語音標）" sheetId="7" r:id="rId5"/>
+    <sheet name="拚音聲調表 (台語音標)" sheetId="5" r:id="rId6"/>
     <sheet name="聲調對照表（閩拚） (2)" sheetId="6" r:id="rId7"/>
     <sheet name="聲調對照表 (3)" sheetId="3" r:id="rId8"/>
     <sheet name="聲調對照表 (2)" sheetId="2" r:id="rId9"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="300">
   <si>
     <t>˙</t>
   </si>
@@ -1005,62 +1005,121 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄊㆲˋ</t>
+    <t>陰平(ㄚ̄)</t>
+  </si>
+  <si>
+    <t>陽平(ㄚ́)</t>
+  </si>
+  <si>
+    <t>陰上(ㄚ̌)</t>
+  </si>
+  <si>
+    <t>陽上(ㄚ̄)</t>
+  </si>
+  <si>
+    <t>陰去(ㄚ̀)</t>
+  </si>
+  <si>
+    <t>陽去(ㄚ̂)</t>
+  </si>
+  <si>
+    <t>陰入(ㄚㆷ̄)</t>
+  </si>
+  <si>
+    <t>陽入(ㄚㆷ́)</t>
+  </si>
+  <si>
+    <t>輕聲(ㄚㆷ˙)</t>
+  </si>
+  <si>
+    <t>陰平 ㄚ̄</t>
+  </si>
+  <si>
+    <t>陽平 ㄚ́</t>
+  </si>
+  <si>
+    <t>陰上 ㄚ̌</t>
+  </si>
+  <si>
+    <t>陽上 ㄚ̄</t>
+  </si>
+  <si>
+    <t>陰去 ㄚ̀</t>
+  </si>
+  <si>
+    <t>陽去 ㄚ̂</t>
+  </si>
+  <si>
+    <t>陰入 ㄚㆷ̄</t>
+  </si>
+  <si>
+    <t>陽入 ㄚㆷ́</t>
+  </si>
+  <si>
+    <t>輕聲 ㄚㆷ˙</t>
+  </si>
+  <si>
+    <t>閩拚音標</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陰平(ㄚ̄)</t>
-  </si>
-  <si>
-    <t>陽平(ㄚ́)</t>
-  </si>
-  <si>
-    <t>陰上(ㄚ̌)</t>
-  </si>
-  <si>
-    <t>陽上(ㄚ̄)</t>
-  </si>
-  <si>
-    <t>陰去(ㄚ̀)</t>
-  </si>
-  <si>
-    <t>陽去(ㄚ̂)</t>
-  </si>
-  <si>
-    <t>陰入(ㄚㆷ̄)</t>
-  </si>
-  <si>
-    <t>陽入(ㄚㆷ́)</t>
-  </si>
-  <si>
-    <t>輕聲(ㄚㆷ˙)</t>
-  </si>
-  <si>
-    <t>陰平 ㄚ̄</t>
-  </si>
-  <si>
-    <t>陽平 ㄚ́</t>
-  </si>
-  <si>
-    <t>陰上 ㄚ̌</t>
-  </si>
-  <si>
-    <t>陽上 ㄚ̄</t>
-  </si>
-  <si>
-    <t>陰去 ㄚ̀</t>
-  </si>
-  <si>
-    <t>陽去 ㄚ̂</t>
-  </si>
-  <si>
-    <t>陰入 ㄚㆷ̄</t>
-  </si>
-  <si>
-    <t>陽入 ㄚㆷ́</t>
-  </si>
-  <si>
-    <t>輕聲 ㄚㆷ˙</t>
+    <t>輕聲調</t>
+  </si>
+  <si>
+    <t>閩拼調號</t>
+  </si>
+  <si>
+    <t>W 調名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高音調</t>
+  </si>
+  <si>
+    <t>低升調</t>
+  </si>
+  <si>
+    <t>高降調</t>
+  </si>
+  <si>
+    <t>低音調</t>
+  </si>
+  <si>
+    <t>中音調</t>
+  </si>
+  <si>
+    <t>低促調</t>
+  </si>
+  <si>
+    <t>高促調</t>
+  </si>
+  <si>
+    <t>上声/陽上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tok7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1381,7 +1440,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1422,6 +1481,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1554,7 +1619,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1729,33 +1794,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1813,8 +1851,56 @@
     <xf numFmtId="0" fontId="43" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -14358,17 +14444,17 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="42">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="79"/>
       <c r="P4" s="35" t="s">
         <v>186</v>
       </c>
@@ -14697,17 +14783,17 @@
       </c>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="2:19">
       <c r="B13" s="34" t="s">
@@ -14935,17 +15021,17 @@
       <c r="J21" s="33"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="33"/>
@@ -15050,36 +15136,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8264B7F8-EC6F-425C-A778-2C680D504D26}">
-  <dimension ref="B2:O18"/>
+  <dimension ref="B2:O19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.375" customWidth="1"/>
+    <col min="3" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="10" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="25.5">
       <c r="B2" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>201</v>
@@ -15087,10 +15172,10 @@
       <c r="G2" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="59"/>
+      <c r="I2" s="82"/>
       <c r="J2" s="14" t="s">
         <v>204</v>
       </c>
@@ -15099,14 +15184,14 @@
       <c r="B3" s="47">
         <v>1</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="45">
         <v>44</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="50" t="s">
         <v>38</v>
@@ -15114,14 +15199,14 @@
       <c r="G3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="91" t="s">
         <v>45</v>
       </c>
       <c r="I3" s="49" t="str">
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
         <v>tōng</v>
       </c>
-      <c r="J3" s="49" t="str">
+      <c r="J3" s="91" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("tong", F3)</f>
         <v>tong;</v>
       </c>
@@ -15145,13 +15230,13 @@
       <c r="B4" s="51">
         <v>2</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52">
         <v>13</v>
       </c>
       <c r="F4" s="54" t="s">
@@ -15160,15 +15245,15 @@
       <c r="G4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="92" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="56" t="str">
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "ng"), "")</f>
         <v>tóng</v>
       </c>
-      <c r="J4" s="56" t="str">
-        <f t="shared" ref="J4:J7" si="0" xml:space="preserve"> _xlfn.CONCAT("tong", F4)</f>
+      <c r="J4" s="92" t="str">
+        <f t="shared" ref="J4:J8" si="0" xml:space="preserve"> _xlfn.CONCAT("tong", F4)</f>
         <v>tong/</v>
       </c>
       <c r="L4" s="35" t="s">
@@ -15191,14 +15276,14 @@
       <c r="B5" s="47">
         <v>3</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="45">
         <v>53</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>11</v>
       </c>
       <c r="F5" s="50" t="s">
         <v>41</v>
@@ -15206,14 +15291,14 @@
       <c r="G5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="91" t="s">
         <v>48</v>
       </c>
       <c r="I5" s="49" t="str">
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030C",4))), "ng"), "")</f>
         <v>tǒng</v>
       </c>
-      <c r="J5" s="49" t="str">
+      <c r="J5" s="91" t="str">
         <f t="shared" si="0"/>
         <v>tong\</v>
       </c>
@@ -15235,34 +15320,18 @@
     </row>
     <row r="6" spans="2:15" ht="57.75">
       <c r="B6" s="51">
-        <v>5</v>
-      </c>
-      <c r="C6" s="52">
-        <v>21</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0300",4))), "ng"), "")</f>
-        <v>tòng</v>
-      </c>
-      <c r="J6" s="56" t="str">
-        <f t="shared" si="0"/>
-        <v>tong_</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="93"/>
       <c r="L6" s="35" t="s">
         <v>120</v>
       </c>
@@ -15281,33 +15350,33 @@
     </row>
     <row r="7" spans="2:15" ht="57.75">
       <c r="B7" s="47">
-        <v>6</v>
-      </c>
-      <c r="C7" s="45">
-        <v>22</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="45">
         <v>21</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>205</v>
+        <v>19</v>
+      </c>
+      <c r="H7" s="91" t="s">
+        <v>50</v>
       </c>
       <c r="I7" s="49" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0302",4))), "ng"), "")</f>
-        <v>tông</v>
-      </c>
-      <c r="J7" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0300",4))), "ng"), "")</f>
+        <v>tòng</v>
+      </c>
+      <c r="J7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>tong-</v>
+        <v>tong_</v>
       </c>
       <c r="L7" s="35" t="s">
         <v>177</v>
@@ -15327,33 +15396,33 @@
     </row>
     <row r="8" spans="2:15" ht="57.75">
       <c r="B8" s="51">
-        <v>7</v>
-      </c>
-      <c r="C8" s="52">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="E8" s="52">
+        <v>22</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="56" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="H8" s="92" t="s">
+        <v>205</v>
       </c>
       <c r="I8" s="56" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "k"), "")</f>
-        <v>tōk</v>
-      </c>
-      <c r="J8" s="56" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("tok", F8)</f>
-        <v>tok[</v>
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0302",4))), "ng"), "")</f>
+        <v>tông</v>
+      </c>
+      <c r="J8" s="92" t="str">
+        <f t="shared" si="0"/>
+        <v>tong-</v>
       </c>
       <c r="L8" s="35" t="s">
         <v>178</v>
@@ -15373,33 +15442,33 @@
     </row>
     <row r="9" spans="2:15" ht="57.75">
       <c r="B9" s="47">
-        <v>8</v>
-      </c>
-      <c r="C9" s="45">
-        <v>121</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>6</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E9" s="45">
+        <v>32</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>206</v>
+        <v>7</v>
+      </c>
+      <c r="H9" s="91" t="s">
+        <v>299</v>
       </c>
       <c r="I9" s="49" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "k"), "")</f>
-        <v>tók</v>
-      </c>
-      <c r="J9" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "k"), "")</f>
+        <v>tōk</v>
+      </c>
+      <c r="J9" s="91" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("tok", F9)</f>
-        <v>tok]</v>
+        <v>tok[</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>121</v>
@@ -15417,7 +15486,36 @@
         <v>to̍ng</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="42">
+    <row r="10" spans="2:15" ht="57.75">
+      <c r="B10" s="51">
+        <v>8</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="52">
+        <v>121</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "k"), "")</f>
+        <v>tók</v>
+      </c>
+      <c r="J10" s="92" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tok", F10)</f>
+        <v>tok]</v>
+      </c>
       <c r="L10" s="35" t="s">
         <v>122</v>
       </c>
@@ -15434,27 +15532,59 @@
         <v>tőng</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="57.75" outlineLevel="1">
-      <c r="B18" s="9">
+    <row r="11" spans="2:15" ht="57.75">
+      <c r="B11" s="47">
+        <v>0</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="45">
+        <v>20</v>
+      </c>
+      <c r="F11" s="50">
+        <v>7</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="I11" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("ah", "⁰"), "")</f>
+        <v>ah⁰</v>
+      </c>
+      <c r="J11" s="91" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ah", F11)</f>
+        <v>ah7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" outlineLevel="1"/>
+    <row r="19" spans="2:10" ht="57.75">
+      <c r="B19" s="9">
         <v>4</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10">
         <v>53</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="15" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="11" t="str">
-        <f xml:space="preserve"> "dong" &amp; J18</f>
+      <c r="H19" s="15"/>
+      <c r="I19" s="11" t="str">
+        <f xml:space="preserve"> "dong" &amp; J19</f>
         <v>dong6</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J19" s="10">
         <v>6</v>
       </c>
     </row>
@@ -15478,824 +15608,542 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65102ED-9A65-4E94-A488-809467BC273C}">
-  <dimension ref="B2:T11"/>
+  <dimension ref="B2:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
-    <col min="18" max="18" width="27" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="18" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="25.5">
+    <row r="2" spans="2:21" ht="25.5">
       <c r="B2" s="14" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>222</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="45">
+    <row r="3" spans="2:21" ht="45">
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3" s="77">
+      <c r="C3" s="67" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="68">
         <v>44</v>
       </c>
-      <c r="E3" s="83" t="s">
-        <v>263</v>
-      </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="H3" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="I3" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="I3" s="72" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(H3, E3)</f>
-        <v>ㄊㆲ'</v>
-      </c>
-      <c r="K3" s="76" t="str">
+      <c r="J3" s="63" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(I3, F3)</f>
+        <v>ㄊㆲ:</v>
+      </c>
+      <c r="L3" s="67" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))))</f>
         <v>ㄚ̄</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="N3" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="N3" s="39">
-        <f xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(M3,4)), "")</f>
+      <c r="O3" s="39">
+        <f xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(N3,4)), "")</f>
         <v>769</v>
       </c>
-      <c r="O3" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(M3,4)))), "")</f>
+      <c r="P3" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(N3,4)))), "")</f>
         <v>ó</v>
       </c>
-      <c r="P3" s="39" t="str">
-        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(M3,4))), "ng"), "")</f>
+      <c r="Q3" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(N3,4))), "ng"), "")</f>
         <v>tóng</v>
       </c>
-      <c r="R3" s="76" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT( LEFT(C3,2), " ", K3,)</f>
+      <c r="S3" s="67" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT( LEFT(C3,2), " ", L3,)</f>
         <v>陰平 ㄚ̄</v>
       </c>
-      <c r="T3" t="s">
-        <v>265</v>
+      <c r="U3" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="45">
+    <row r="4" spans="2:21" ht="45">
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="D4" s="80">
+      <c r="C4" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="71">
         <v>13</v>
       </c>
-      <c r="E4" s="81">
+      <c r="F4" s="71">
         <v>6</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="G4" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="I4" s="74" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT( LEFT( H4, LEN(H4)-1), E4)</f>
+      <c r="J4" s="65" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT( LEFT( I4, LEN(I4)-1), F4)</f>
         <v>ㄊㆲ6</v>
       </c>
-      <c r="K4" s="76" t="str">
+      <c r="L4" s="67" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))))</f>
         <v>ㄚ́</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="N4" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="N4" s="39">
-        <f t="shared" ref="N4:N10" si="0" xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(M4,4)), "")</f>
+      <c r="O4" s="39">
+        <f t="shared" ref="O4:O10" si="0" xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(N4,4)), "")</f>
         <v>768</v>
       </c>
-      <c r="O4" s="39" t="str">
-        <f t="shared" ref="O4:O10" si="1" xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(M4,4)))), "")</f>
+      <c r="P4" s="39" t="str">
+        <f t="shared" ref="P4:P10" si="1" xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(N4,4)))), "")</f>
         <v>ò</v>
       </c>
-      <c r="P4" s="39" t="str">
-        <f t="shared" ref="P4:P10" si="2" xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(M4,4))), "ng"), "")</f>
+      <c r="Q4" s="39" t="str">
+        <f t="shared" ref="Q4:Q10" si="2" xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(N4,4))), "ng"), "")</f>
         <v>tòng</v>
       </c>
-      <c r="R4" s="76" t="str">
-        <f t="shared" ref="R4:R11" si="3" xml:space="preserve"> _xlfn.CONCAT( LEFT(C4,2), " ", K4,)</f>
+      <c r="S4" s="67" t="str">
+        <f t="shared" ref="S4:S11" si="3" xml:space="preserve"> _xlfn.CONCAT( LEFT(C4,2), " ", L4,)</f>
         <v>陽平 ㄚ́</v>
       </c>
-      <c r="T4" t="s">
-        <v>266</v>
+      <c r="U4" t="s">
+        <v>265</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="45">
+    <row r="5" spans="2:21" ht="45">
       <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" s="77">
+      <c r="C5" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="68">
         <v>53</v>
       </c>
-      <c r="E5" s="78">
+      <c r="F5" s="68">
         <v>4</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="G5" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="G5" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="62" t="s">
+        <v>296</v>
+      </c>
+      <c r="I5" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="I5" s="75" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT( LEFT( H5, LEN(H5)-1), E5)</f>
+      <c r="J5" s="66" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT( LEFT( I5, LEN(I5)-1), F5)</f>
         <v>ㄊㆲ4</v>
       </c>
-      <c r="K5" s="76" t="str">
+      <c r="L5" s="67" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+030C",4))))</f>
         <v>ㄚ̌</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="N5" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="N5" s="39">
+      <c r="O5" s="39">
         <f t="shared" si="0"/>
         <v>781</v>
       </c>
-      <c r="O5" s="39" t="str">
+      <c r="P5" s="39" t="str">
         <f t="shared" si="1"/>
         <v>o̍</v>
       </c>
-      <c r="P5" s="39" t="str">
+      <c r="Q5" s="39" t="str">
         <f t="shared" si="2"/>
         <v>to̍ng</v>
       </c>
-      <c r="R5" s="76" t="str">
+      <c r="S5" s="67" t="str">
         <f t="shared" si="3"/>
         <v>陰上 ㄚ̌</v>
       </c>
-      <c r="T5" t="s">
-        <v>267</v>
+      <c r="U5" t="s">
+        <v>266</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="45">
+    <row r="6" spans="2:21" ht="42">
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="79" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>205</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>264</v>
-      </c>
-      <c r="I6" s="74" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(H6, E6)</f>
-        <v>ㄊㆲˋ</v>
-      </c>
-      <c r="K6" s="76" t="str">
-        <f t="shared" ref="K5:K8" si="4" xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))))</f>
+      <c r="C6" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="L6" s="67" t="str">
+        <f t="shared" ref="L6" si="4" xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))))</f>
         <v>ㄚ̄</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="N6" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="N6" s="39">
+      <c r="O6" s="39">
         <f t="shared" si="0"/>
         <v>770</v>
       </c>
-      <c r="O6" s="39" t="str">
+      <c r="P6" s="39" t="str">
         <f t="shared" si="1"/>
         <v>ô</v>
       </c>
-      <c r="P6" s="39" t="str">
+      <c r="Q6" s="39" t="str">
         <f t="shared" si="2"/>
         <v>tông</v>
       </c>
-      <c r="R6" s="76" t="str">
+      <c r="S6" s="67" t="str">
         <f t="shared" si="3"/>
         <v>陽上 ㄚ̄</v>
       </c>
-      <c r="T6" t="s">
-        <v>268</v>
+      <c r="U6" t="s">
+        <v>267</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="45">
+    <row r="7" spans="2:21" ht="45">
       <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="76" t="s">
-        <v>278</v>
-      </c>
-      <c r="D7" s="77">
+      <c r="C7" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="68">
         <v>21</v>
       </c>
-      <c r="E7" s="78">
+      <c r="F7" s="68">
         <v>3</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="G7" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="I7" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="I7" s="75" t="str">
-        <f t="shared" ref="I7:I10" si="5" xml:space="preserve"> _xlfn.CONCAT( LEFT( H7, LEN(H7)-1), E7)</f>
+      <c r="J7" s="66" t="str">
+        <f t="shared" ref="J7:J10" si="5" xml:space="preserve"> _xlfn.CONCAT( LEFT( I7, LEN(I7)-1), F7)</f>
         <v>ㄊㆲ3</v>
       </c>
-      <c r="K7" s="76" t="str">
+      <c r="L7" s="67" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0300",4))))</f>
         <v>ㄚ̀</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="N7" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="N7" s="39">
+      <c r="O7" s="39">
         <f t="shared" si="0"/>
         <v>780</v>
       </c>
-      <c r="O7" s="39" t="str">
+      <c r="P7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>ǒ</v>
       </c>
-      <c r="P7" s="39" t="str">
+      <c r="Q7" s="39" t="str">
         <f t="shared" si="2"/>
         <v>tǒng</v>
       </c>
-      <c r="R7" s="76" t="str">
+      <c r="S7" s="67" t="str">
         <f t="shared" si="3"/>
         <v>陰去 ㄚ̀</v>
       </c>
-      <c r="T7" t="s">
-        <v>269</v>
+      <c r="U7" t="s">
+        <v>268</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="45">
+    <row r="8" spans="2:21" ht="45">
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="80">
+      <c r="C8" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="71">
         <v>22</v>
       </c>
-      <c r="E8" s="81">
+      <c r="F8" s="71">
         <v>5</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="G8" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="G8" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="I8" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="I8" s="74" t="str">
+      <c r="J8" s="65" t="str">
         <f t="shared" si="5"/>
         <v>ㄊㆲ5</v>
       </c>
-      <c r="K8" s="76" t="str">
+      <c r="L8" s="67" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0302",4))))</f>
         <v>ㄚ̂</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="N8" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="N8" s="39">
+      <c r="O8" s="39">
         <f t="shared" si="0"/>
         <v>772</v>
       </c>
-      <c r="O8" s="39" t="str">
+      <c r="P8" s="39" t="str">
         <f t="shared" si="1"/>
         <v>ō</v>
       </c>
-      <c r="P8" s="39" t="str">
+      <c r="Q8" s="39" t="str">
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
         <v>tōng</v>
       </c>
-      <c r="R8" s="76" t="str">
+      <c r="S8" s="67" t="str">
         <f t="shared" si="3"/>
         <v>陽去 ㄚ̂</v>
       </c>
-      <c r="T8" t="s">
-        <v>270</v>
+      <c r="U8" t="s">
+        <v>269</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="45">
+    <row r="9" spans="2:21" ht="45">
       <c r="B9" s="12">
         <v>7</v>
       </c>
-      <c r="C9" s="76" t="s">
-        <v>280</v>
-      </c>
-      <c r="D9" s="77">
+      <c r="C9" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="68">
         <v>32</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="F9" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="G9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="71" t="s">
-        <v>217</v>
-      </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="62" t="s">
+        <v>299</v>
+      </c>
+      <c r="I9" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="I9" s="74" t="str">
-        <f t="shared" si="5"/>
-        <v>ㄊㆦ[</v>
-      </c>
-      <c r="K9" s="76" t="str">
+      <c r="J9" s="66" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT( LEFT( I9, LEN(I9)), F9)</f>
+        <v>ㄊㆦㆻ[</v>
+      </c>
+      <c r="L9" s="67" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("ㄚ", "ㆷ", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))))</f>
         <v>ㄚㆷ̄</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="N9" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="N9" s="39">
+      <c r="O9" s="39">
         <f t="shared" si="0"/>
         <v>781</v>
       </c>
-      <c r="O9" s="39" t="str">
+      <c r="P9" s="39" t="str">
         <f t="shared" si="1"/>
         <v>o̍</v>
       </c>
-      <c r="P9" s="39" t="str">
+      <c r="Q9" s="39" t="str">
         <f t="shared" si="2"/>
         <v>to̍ng</v>
       </c>
-      <c r="R9" s="76" t="str">
+      <c r="S9" s="67" t="str">
         <f t="shared" si="3"/>
         <v>陰入 ㄚㆷ̄</v>
       </c>
-      <c r="T9" t="s">
-        <v>271</v>
+      <c r="U9" t="s">
+        <v>270</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="45">
+    <row r="10" spans="2:21" ht="45">
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="79" t="s">
-        <v>281</v>
-      </c>
-      <c r="D10" s="80">
+      <c r="C10" s="70" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="71">
         <v>121</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="F10" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="G10" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="H10" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="I10" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="I10" s="74" t="str">
+      <c r="J10" s="65" t="str">
         <f t="shared" si="5"/>
         <v>ㄊㆦㆻ]</v>
       </c>
-      <c r="K10" s="76" t="str">
+      <c r="L10" s="67" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("ㄚ", "ㆷ", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))))</f>
         <v>ㄚㆷ́</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="N10" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="N10" s="39">
+      <c r="O10" s="39">
         <f t="shared" si="0"/>
         <v>779</v>
       </c>
-      <c r="O10" s="39" t="str">
+      <c r="P10" s="39" t="str">
         <f t="shared" si="1"/>
         <v>ő</v>
       </c>
-      <c r="P10" s="39" t="str">
+      <c r="Q10" s="39" t="str">
         <f t="shared" si="2"/>
         <v>tőng</v>
       </c>
-      <c r="R10" s="76" t="str">
+      <c r="S10" s="67" t="str">
         <f t="shared" si="3"/>
         <v>陽入 ㄚㆷ́</v>
       </c>
-      <c r="T10" t="s">
-        <v>272</v>
+      <c r="U10" t="s">
+        <v>271</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="45">
+    <row r="11" spans="2:21" ht="45">
       <c r="B11" s="12">
         <v>0</v>
       </c>
-      <c r="C11" s="76" t="s">
-        <v>282</v>
-      </c>
-      <c r="D11" s="77">
-        <v>2</v>
-      </c>
-      <c r="E11" s="78">
+      <c r="C11" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="68">
+        <v>20</v>
+      </c>
+      <c r="F11" s="68">
         <v>7</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="G11" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="H11" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="H11" s="75" t="s">
+      <c r="I11" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="I11" s="75" t="str">
-        <f t="shared" ref="I11" si="6" xml:space="preserve"> _xlfn.CONCAT( LEFT( H11, LEN(H11)-1), E11)</f>
+      <c r="J11" s="66" t="str">
+        <f t="shared" ref="J11" si="6" xml:space="preserve"> _xlfn.CONCAT( LEFT( I11, LEN(I11)-1), F11)</f>
         <v>ㄚㆷ7</v>
       </c>
-      <c r="K11" s="76" t="str">
+      <c r="L11" s="67" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("ㄚ", "ㆷ", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+02D9",4))))</f>
         <v>ㄚㆷ˙</v>
       </c>
-      <c r="R11" s="76" t="str">
+      <c r="S11" s="67" t="str">
         <f t="shared" si="3"/>
         <v>輕聲 ㄚㆷ˙</v>
       </c>
-      <c r="T11" t="s">
-        <v>273</v>
+      <c r="U11" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" display="https://zi-hi.com/sp/uni/0301" xr:uid="{09B4369C-09F5-493D-97DE-F2132117D92D}"/>
-    <hyperlink ref="M4" r:id="rId2" display="https://zi-hi.com/sp/uni/0300" xr:uid="{C7674C4A-D199-49E9-89AC-4C0FC2F02CEE}"/>
-    <hyperlink ref="M6" r:id="rId3" display="https://zi-hi.com/sp/uni/0302" xr:uid="{1FAAC11D-0453-47CE-80B4-CC8B31B5FD55}"/>
-    <hyperlink ref="M7" r:id="rId4" display="https://zi-hi.com/sp/uni/030C" xr:uid="{6AFE2CB8-2C9D-44DF-8BC8-63ABD97F88D6}"/>
-    <hyperlink ref="M8" r:id="rId5" display="https://zi-hi.com/sp/uni/0304" xr:uid="{65EAC2D0-F4FC-426B-B86A-777DA20CFD70}"/>
-    <hyperlink ref="M9" r:id="rId6" display="https://zi-hi.com/sp/uni/030D" xr:uid="{390B647D-29B8-49F1-8F25-9860E0CA47F9}"/>
-    <hyperlink ref="M10" r:id="rId7" display="https://zi-hi.com/sp/uni/030B" xr:uid="{B8093843-7A9F-42E9-B983-E082C50B2D11}"/>
+    <hyperlink ref="N3" r:id="rId1" display="https://zi-hi.com/sp/uni/0301" xr:uid="{09B4369C-09F5-493D-97DE-F2132117D92D}"/>
+    <hyperlink ref="N4" r:id="rId2" display="https://zi-hi.com/sp/uni/0300" xr:uid="{C7674C4A-D199-49E9-89AC-4C0FC2F02CEE}"/>
+    <hyperlink ref="N6" r:id="rId3" display="https://zi-hi.com/sp/uni/0302" xr:uid="{1FAAC11D-0453-47CE-80B4-CC8B31B5FD55}"/>
+    <hyperlink ref="N7" r:id="rId4" display="https://zi-hi.com/sp/uni/030C" xr:uid="{6AFE2CB8-2C9D-44DF-8BC8-63ABD97F88D6}"/>
+    <hyperlink ref="N8" r:id="rId5" display="https://zi-hi.com/sp/uni/0304" xr:uid="{65EAC2D0-F4FC-426B-B86A-777DA20CFD70}"/>
+    <hyperlink ref="N9" r:id="rId6" display="https://zi-hi.com/sp/uni/030D" xr:uid="{390B647D-29B8-49F1-8F25-9860E0CA47F9}"/>
+    <hyperlink ref="N10" r:id="rId7" display="https://zi-hi.com/sp/uni/030B" xr:uid="{B8093843-7A9F-42E9-B983-E082C50B2D11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71574A8B-8D3F-4AFC-B56E-E3C6E782C4A4}">
-  <dimension ref="B2:L18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" ht="25.5">
-      <c r="B2" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="65.25">
-      <c r="B3" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="16" t="str">
-        <f xml:space="preserve"> "tong" &amp; I3</f>
-        <v>tong1</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="7">
-        <v>44</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
-        <v>1</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="65.25">
-      <c r="B4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17" t="str">
-        <f t="shared" ref="D4:D7" si="0" xml:space="preserve"> "tong" &amp; I4</f>
-        <v>tong7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2">
-        <v>6</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="65.25">
-      <c r="B5" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>tong3</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7">
-        <v>21</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3</v>
-      </c>
-      <c r="J5" s="6">
-        <v>5</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="65.25">
-      <c r="B6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="17" t="str">
-        <f xml:space="preserve"> "tong" &amp; I6</f>
-        <v>tong2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3">
-        <v>53</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="65.25">
-      <c r="B7" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>tong5</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5</v>
-      </c>
-      <c r="J7" s="6">
-        <v>2</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="65.25">
-      <c r="B8" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3">
-        <v>32</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4</v>
-      </c>
-      <c r="J8" s="2">
-        <v>7</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="65.25">
-      <c r="B9" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>121</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>8</v>
-      </c>
-      <c r="J9" s="6">
-        <v>8</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="L10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="57.75" outlineLevel="1">
-      <c r="B18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="11" t="str">
-        <f xml:space="preserve"> "dong" &amp; I18</f>
-        <v>dong6</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10">
-        <v>53</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="10">
-        <v>6</v>
-      </c>
-      <c r="J18" s="9">
-        <v>4</v>
-      </c>
-      <c r="L18" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A17A80-03F8-423A-8766-B16781C638F3}">
   <dimension ref="B2:V11"/>
   <sheetViews>
@@ -16346,29 +16194,29 @@
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="68">
         <v>44</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="I3" s="72" t="str">
+      <c r="I3" s="63" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(H3, E3)</f>
         <v>ㄊㆲ'</v>
       </c>
-      <c r="K3" s="76" t="str">
+      <c r="K3" s="67" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))))</f>
         <v>ㄚ̄</v>
       </c>
@@ -16387,39 +16235,39 @@
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(M3,4))), "ng"), "")</f>
         <v>tóng</v>
       </c>
-      <c r="S3" s="82" t="s">
+      <c r="S3" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="T3" s="82"/>
-      <c r="U3" s="76" t="str">
+      <c r="T3" s="73"/>
+      <c r="U3" s="67" t="str">
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("ㄚ", "ㆷ", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+02D9",4)))), "")</f>
         <v>ㄚㆷ˙</v>
       </c>
-      <c r="V3" s="82"/>
+      <c r="V3" s="73"/>
     </row>
     <row r="4" spans="2:22" ht="45">
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="80">
+      <c r="D4" s="71">
         <v>53</v>
       </c>
-      <c r="E4" s="81">
+      <c r="E4" s="72">
         <v>4</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="74" t="str">
+      <c r="I4" s="65" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( LEFT( H4, LEN(H4)-1), E4)</f>
         <v>ㄊㆲ4</v>
       </c>
@@ -16438,16 +16286,16 @@
         <f t="shared" ref="P4:P10" si="2" xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(M4,4))), "ng"), "")</f>
         <v>tòng</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="T4" s="82" t="s">
+      <c r="T4" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="73" t="s">
         <v>237</v>
       </c>
     </row>
@@ -16455,25 +16303,25 @@
       <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="68">
         <v>21</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="69">
         <v>3</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="I5" s="75" t="str">
+      <c r="I5" s="66" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( LEFT( H5, LEN(H5)-1), E5)</f>
         <v>ㄊㆲ3</v>
       </c>
@@ -16492,16 +16340,16 @@
         <f t="shared" si="2"/>
         <v>to̍ng</v>
       </c>
-      <c r="S5" s="82" t="s">
+      <c r="S5" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="T5" s="82" t="s">
+      <c r="T5" s="73" t="s">
         <v>251</v>
       </c>
-      <c r="U5" s="82" t="s">
+      <c r="U5" s="73" t="s">
         <v>239</v>
       </c>
-      <c r="V5" s="82" t="s">
+      <c r="V5" s="73" t="s">
         <v>252</v>
       </c>
     </row>
@@ -16509,25 +16357,25 @@
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="71">
         <v>32</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="I6" s="74" t="str">
+      <c r="I6" s="65" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(H6, E6)</f>
         <v>ㄊㆦㆻ[</v>
       </c>
@@ -16546,16 +16394,16 @@
         <f t="shared" si="2"/>
         <v>tông</v>
       </c>
-      <c r="S6" s="82" t="s">
+      <c r="S6" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="T6" s="82" t="s">
+      <c r="T6" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="V6" s="82" t="s">
+      <c r="V6" s="73" t="s">
         <v>242</v>
       </c>
     </row>
@@ -16563,25 +16411,25 @@
       <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="68">
         <v>13</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="69">
         <v>6</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="I7" s="75" t="str">
+      <c r="I7" s="66" t="str">
         <f t="shared" ref="I7:I11" si="3" xml:space="preserve"> _xlfn.CONCAT( LEFT( H7, LEN(H7)-1), E7)</f>
         <v>ㄊㆲ6</v>
       </c>
@@ -16600,36 +16448,36 @@
         <f t="shared" si="2"/>
         <v>tǒng</v>
       </c>
-      <c r="S7" s="82" t="s">
+      <c r="S7" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="T7" s="82" t="s">
+      <c r="T7" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="U7" s="82" t="s">
+      <c r="U7" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="V7" s="82"/>
+      <c r="V7" s="73"/>
     </row>
     <row r="8" spans="2:22" ht="45">
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="69" t="s">
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="I8" s="74" t="str">
+      <c r="I8" s="65" t="str">
         <f t="shared" si="3"/>
         <v>ㄊㆲ</v>
       </c>
@@ -16648,40 +16496,40 @@
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
         <v>tōng</v>
       </c>
-      <c r="S8" s="82" t="s">
+      <c r="S8" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="82" t="s">
+      <c r="T8" s="73" t="s">
         <v>255</v>
       </c>
-      <c r="U8" s="82" t="s">
+      <c r="U8" s="73" t="s">
         <v>244</v>
       </c>
-      <c r="V8" s="82"/>
+      <c r="V8" s="73"/>
     </row>
     <row r="9" spans="2:22" ht="45">
       <c r="B9" s="12">
         <v>7</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="68">
         <v>22</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="69">
         <v>5</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="I9" s="75" t="str">
+      <c r="I9" s="66" t="str">
         <f t="shared" si="3"/>
         <v>ㄊㆲ5</v>
       </c>
@@ -16700,40 +16548,40 @@
         <f t="shared" si="2"/>
         <v>to̍ng</v>
       </c>
-      <c r="S9" s="82" t="s">
+      <c r="S9" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="82" t="s">
+      <c r="T9" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="U9" s="82" t="s">
+      <c r="U9" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="V9" s="82"/>
+      <c r="V9" s="73"/>
     </row>
     <row r="10" spans="2:22" ht="45">
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="70" t="s">
         <v>234</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="71">
         <v>121</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="I10" s="74" t="str">
+      <c r="I10" s="65" t="str">
         <f t="shared" si="3"/>
         <v>ㄊㆦㆻ]</v>
       </c>
@@ -16752,57 +16600,57 @@
         <f t="shared" si="2"/>
         <v>tőng</v>
       </c>
-      <c r="S10" s="82" t="s">
+      <c r="S10" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="82" t="s">
+      <c r="T10" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="U10" s="82" t="s">
+      <c r="U10" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="V10" s="82"/>
+      <c r="V10" s="73"/>
     </row>
     <row r="11" spans="2:22" ht="45">
       <c r="B11" s="12">
         <v>0</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="68">
         <v>2</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="69">
         <v>7</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="H11" s="75" t="s">
+      <c r="H11" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="I11" s="75" t="str">
+      <c r="I11" s="66" t="str">
         <f t="shared" si="3"/>
         <v>ㄚㆷ7</v>
       </c>
-      <c r="K11" s="76" t="str">
+      <c r="K11" s="67" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("ㄚ", "ㆷ", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+02D9",4))))</f>
         <v>ㄚㆷ˙</v>
       </c>
-      <c r="S11" s="82" t="s">
+      <c r="S11" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="T11" s="82" t="s">
+      <c r="T11" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="U11" s="82" t="s">
+      <c r="U11" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="V11" s="82" t="s">
+      <c r="V11" s="73" t="s">
         <v>248</v>
       </c>
     </row>
@@ -16821,7 +16669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC180E-22C7-41E3-9B1C-02C96E708532}">
   <dimension ref="B2:O18"/>
   <sheetViews>
@@ -16860,10 +16708,10 @@
       <c r="G2" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="59"/>
+      <c r="I2" s="82"/>
       <c r="J2" s="14" t="s">
         <v>204</v>
       </c>
@@ -17314,6 +17162,307 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71574A8B-8D3F-4AFC-B56E-E3C6E782C4A4}">
+  <dimension ref="B2:L18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="25.5">
+      <c r="B2" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="65.25">
+      <c r="B3" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="str">
+        <f xml:space="preserve"> "tong" &amp; I3</f>
+        <v>tong1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="7">
+        <v>44</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="65.25">
+      <c r="B4" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="17" t="str">
+        <f t="shared" ref="D4:D7" si="0" xml:space="preserve"> "tong" &amp; I4</f>
+        <v>tong7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>6</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="65.25">
+      <c r="B5" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>tong3</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="65.25">
+      <c r="B6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="17" t="str">
+        <f xml:space="preserve"> "tong" &amp; I6</f>
+        <v>tong2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3">
+        <v>53</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="65.25">
+      <c r="B7" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>tong5</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="65.25">
+      <c r="B8" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2">
+        <v>7</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="65.25">
+      <c r="B9" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>121</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6">
+        <v>8</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="L10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="57.75" outlineLevel="1">
+      <c r="B18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="11" t="str">
+        <f xml:space="preserve"> "dong" &amp; I18</f>
+        <v>dong6</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10">
+        <v>53</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="10">
+        <v>6</v>
+      </c>
+      <c r="J18" s="9">
+        <v>4</v>
+      </c>
+      <c r="L18" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -17336,11 +17485,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="25.5">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="14" t="s">
         <v>32</v>
       </c>
@@ -17811,10 +17960,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.5">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="14" t="s">
         <v>32</v>
       </c>
@@ -18074,10 +18223,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="25.5">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="14" t="s">
         <v>32</v>
       </c>

--- a/docs/聲調對照表.xlsx
+++ b/docs/聲調對照表.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\rime-bp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB78DAF-97DA-460A-8948-A1B0B8BB2ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F290B9D-1051-4861-B27A-21F48A5854F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" tabRatio="818" activeTab="1" xr2:uid="{08BCE876-220B-4617-985F-BC533BEFAD68}"/>
+    <workbookView xWindow="47895" yWindow="-75" windowWidth="19410" windowHeight="15585" tabRatio="818" firstSheet="2" activeTab="3" xr2:uid="{08BCE876-220B-4617-985F-BC533BEFAD68}"/>
   </bookViews>
   <sheets>
     <sheet name="聲調符號表" sheetId="4" r:id="rId1"/>
     <sheet name="拚音聲調表（閩拚）" sheetId="1" r:id="rId2"/>
     <sheet name="注音聲調表（閩拚）" sheetId="9" r:id="rId3"/>
-    <sheet name="注音聲調表（台語音標）" sheetId="8" r:id="rId4"/>
-    <sheet name="聲調對照表（台語音標）" sheetId="7" r:id="rId5"/>
-    <sheet name="拚音聲調表 (台語音標)" sheetId="5" r:id="rId6"/>
-    <sheet name="聲調對照表（閩拚） (2)" sheetId="6" r:id="rId7"/>
-    <sheet name="聲調對照表 (3)" sheetId="3" r:id="rId8"/>
-    <sheet name="聲調對照表 (2)" sheetId="2" r:id="rId9"/>
+    <sheet name="拚音聲調表（閩拚） (溫韻)" sheetId="10" r:id="rId4"/>
+    <sheet name="注音聲調表（閩拚） (溫韻)" sheetId="11" r:id="rId5"/>
+    <sheet name="注音聲調表（台語音標）" sheetId="8" r:id="rId6"/>
+    <sheet name="聲調對照表（台語音標）" sheetId="7" r:id="rId7"/>
+    <sheet name="拚音聲調表 (台語音標)" sheetId="5" r:id="rId8"/>
+    <sheet name="聲調對照表（閩拚） (2)" sheetId="6" r:id="rId9"/>
+    <sheet name="聲調對照表 (3)" sheetId="3" r:id="rId10"/>
+    <sheet name="聲調對照表 (2)" sheetId="2" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="十五音韻母">'[1]十五音-韻母'!$C$5:$C$54</definedName>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="315">
   <si>
     <t>˙</t>
   </si>
@@ -1098,6 +1100,9 @@
     <t>高促調</t>
   </si>
   <si>
+    <t>啊</t>
+  </si>
+  <si>
     <t>上声/陽上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1119,6 +1124,96 @@
   </si>
   <si>
     <t>tok7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>◌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>́</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t> U+0301</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>◌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>̀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t> U+0300</t>
+    </r>
+  </si>
+  <si>
+    <t>君</t>
+  </si>
+  <si>
+    <t>君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群</t>
+  </si>
+  <si>
+    <t>群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滾</t>
+  </si>
+  <si>
+    <t>滾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棍</t>
+  </si>
+  <si>
+    <t>棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨</t>
+  </si>
+  <si>
+    <t>骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑</t>
+  </si>
+  <si>
+    <t>滑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,7 +1221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46">
+  <fonts count="50">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1439,6 +1534,34 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="字咍源流明體 白話字 R"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Serif TC Black"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1485,7 +1608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FF00D25F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,7 +1742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1878,6 +2001,24 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1891,16 +2032,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1913,6 +2063,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00D25F"/>
+      <color rgb="FF00823B"/>
+      <color rgb="FF00E668"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -15134,12 +15291,562 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1050C03-4A49-40F3-8140-C9DAF6B05C63}">
+  <dimension ref="B2:I18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="25.5">
+      <c r="B2" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="65.25">
+      <c r="B3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="16" t="str">
+        <f xml:space="preserve"> "tong" &amp; H3</f>
+        <v>tong1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7">
+        <v>44</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="65.25">
+      <c r="B4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="17" t="str">
+        <f t="shared" ref="C4:C7" si="0" xml:space="preserve"> "tong" &amp; H4</f>
+        <v>tong7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="65.25">
+      <c r="B5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>tong3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7">
+        <v>21</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="65.25">
+      <c r="B6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="17" t="str">
+        <f xml:space="preserve"> "tong" &amp; H6</f>
+        <v>tong2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="65.25">
+      <c r="B7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>tong5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="65.25">
+      <c r="B8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="65.25">
+      <c r="B9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>121</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>8</v>
+      </c>
+      <c r="I9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="57.75" outlineLevel="1">
+      <c r="B18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11" t="str">
+        <f xml:space="preserve"> "dong" &amp; H18</f>
+        <v>dong6</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10">
+        <v>53</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="10">
+        <v>6</v>
+      </c>
+      <c r="I18" s="9">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1566D659-7E1D-42E7-9495-78EC72F6C0D2}">
+  <dimension ref="B2:J18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="25.5">
+      <c r="B2" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="65.25">
+      <c r="B3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="29" t="str">
+        <f xml:space="preserve"> "tong" &amp; I3</f>
+        <v>tong1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="31">
+        <v>44</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="24">
+        <v>1</v>
+      </c>
+      <c r="J3" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="65.25">
+      <c r="B4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="30" t="str">
+        <f t="shared" ref="C4:C7" si="0" xml:space="preserve"> "tong" &amp; I4</f>
+        <v>tong7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="32">
+        <v>22</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="25">
+        <v>7</v>
+      </c>
+      <c r="J4" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="65.25">
+      <c r="B5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>tong3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="31">
+        <v>21</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="24">
+        <v>3</v>
+      </c>
+      <c r="J5" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="65.25">
+      <c r="B6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="30" t="str">
+        <f xml:space="preserve"> "tong" &amp; I6</f>
+        <v>tong2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="32">
+        <v>53</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="25">
+        <v>2</v>
+      </c>
+      <c r="J6" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="65.25">
+      <c r="B7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>tong5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="31">
+        <v>13</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="24">
+        <v>5</v>
+      </c>
+      <c r="J7" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="65.25">
+      <c r="B8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="32">
+        <v>32</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="25">
+        <v>4</v>
+      </c>
+      <c r="J8" s="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="65.25">
+      <c r="B9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="31">
+        <v>121</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="24">
+        <v>8</v>
+      </c>
+      <c r="J9" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="57.75" outlineLevel="1">
+      <c r="B18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11" t="str">
+        <f xml:space="preserve"> "dong" &amp; I18</f>
+        <v>dong6</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10">
+        <v>53</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="10">
+        <v>6</v>
+      </c>
+      <c r="J18" s="9">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8264B7F8-EC6F-425C-A778-2C680D504D26}">
   <dimension ref="B2:O19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
@@ -15151,9 +15858,11 @@
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="8" max="10" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="16.375" style="88" customWidth="1"/>
+    <col min="13" max="15" width="12.125" style="88" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="25.5">
+    <row r="2" spans="2:15" ht="34.5" customHeight="1">
       <c r="B2" s="13" t="s">
         <v>199</v>
       </c>
@@ -15179,8 +15888,9 @@
       <c r="J2" s="14" t="s">
         <v>204</v>
       </c>
+      <c r="L2" s="89"/>
     </row>
-    <row r="3" spans="2:15" ht="57.75">
+    <row r="3" spans="2:15" ht="54" customHeight="1">
       <c r="B3" s="47">
         <v>1</v>
       </c>
@@ -15199,19 +15909,19 @@
       <c r="G3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="86" t="s">
         <v>45</v>
       </c>
       <c r="I3" s="49" t="str">
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
         <v>tōng</v>
       </c>
-      <c r="J3" s="91" t="str">
+      <c r="J3" s="86" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("tong", F3)</f>
         <v>tong;</v>
       </c>
-      <c r="L3" s="35" t="s">
-        <v>185</v>
+      <c r="L3" s="90" t="s">
+        <v>301</v>
       </c>
       <c r="M3" s="39">
         <f xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(L3,4)), "")</f>
@@ -15226,7 +15936,7 @@
         <v>tóng</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="57.75">
+    <row r="4" spans="2:15" ht="54" customHeight="1">
       <c r="B4" s="51">
         <v>2</v>
       </c>
@@ -15245,22 +15955,22 @@
       <c r="G4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="87" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="56" t="str">
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "ng"), "")</f>
         <v>tóng</v>
       </c>
-      <c r="J4" s="92" t="str">
+      <c r="J4" s="87" t="str">
         <f t="shared" ref="J4:J8" si="0" xml:space="preserve"> _xlfn.CONCAT("tong", F4)</f>
         <v>tong/</v>
       </c>
-      <c r="L4" s="35" t="s">
-        <v>186</v>
+      <c r="L4" s="90" t="s">
+        <v>302</v>
       </c>
       <c r="M4" s="39">
-        <f t="shared" ref="M4:M10" si="1" xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(L4,4)), "")</f>
+        <f t="shared" ref="L4:M10" si="1" xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(L4,4)), "")</f>
         <v>768</v>
       </c>
       <c r="N4" s="39" t="str">
@@ -15272,7 +15982,7 @@
         <v>tòng</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="57.75">
+    <row r="5" spans="2:15" ht="54" customHeight="1">
       <c r="B5" s="47">
         <v>3</v>
       </c>
@@ -15291,48 +16001,37 @@
       <c r="G5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="91" t="s">
+      <c r="H5" s="86" t="s">
         <v>48</v>
       </c>
       <c r="I5" s="49" t="str">
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030C",4))), "ng"), "")</f>
         <v>tǒng</v>
       </c>
-      <c r="J5" s="91" t="str">
+      <c r="J5" s="86" t="str">
         <f t="shared" si="0"/>
         <v>tong\</v>
       </c>
-      <c r="L5" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N5" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O5" s="39" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="L5" s="91"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
     </row>
-    <row r="6" spans="2:15" ht="57.75">
+    <row r="6" spans="2:15" ht="54" customHeight="1">
       <c r="B6" s="51">
         <v>4</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="93"/>
-      <c r="L6" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="96"/>
+      <c r="L6" s="90" t="s">
         <v>120</v>
       </c>
       <c r="M6" s="39">
@@ -15348,7 +16047,7 @@
         <v>tông</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="57.75">
+    <row r="7" spans="2:15" ht="54" customHeight="1">
       <c r="B7" s="47">
         <v>5</v>
       </c>
@@ -15367,18 +16066,18 @@
       <c r="G7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="91" t="s">
+      <c r="H7" s="86" t="s">
         <v>50</v>
       </c>
       <c r="I7" s="49" t="str">
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0300",4))), "ng"), "")</f>
         <v>tòng</v>
       </c>
-      <c r="J7" s="91" t="str">
+      <c r="J7" s="86" t="str">
         <f t="shared" si="0"/>
         <v>tong_</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="90" t="s">
         <v>177</v>
       </c>
       <c r="M7" s="39">
@@ -15394,7 +16093,7 @@
         <v>tǒng</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="57.75">
+    <row r="8" spans="2:15" ht="54" customHeight="1">
       <c r="B8" s="51">
         <v>6</v>
       </c>
@@ -15413,18 +16112,18 @@
       <c r="G8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="87" t="s">
         <v>205</v>
       </c>
       <c r="I8" s="56" t="str">
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0302",4))), "ng"), "")</f>
         <v>tông</v>
       </c>
-      <c r="J8" s="92" t="str">
+      <c r="J8" s="87" t="str">
         <f t="shared" si="0"/>
         <v>tong-</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="90" t="s">
         <v>178</v>
       </c>
       <c r="M8" s="39">
@@ -15440,7 +16139,7 @@
         <v>tōng</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="57.75">
+    <row r="9" spans="2:15" ht="54" customHeight="1">
       <c r="B9" s="47">
         <v>7</v>
       </c>
@@ -15459,18 +16158,18 @@
       <c r="G9" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="91" t="s">
-        <v>299</v>
+      <c r="H9" s="86" t="s">
+        <v>300</v>
       </c>
       <c r="I9" s="49" t="str">
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "k"), "")</f>
         <v>tōk</v>
       </c>
-      <c r="J9" s="91" t="str">
+      <c r="J9" s="86" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("tok", F9)</f>
         <v>tok[</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="90" t="s">
         <v>121</v>
       </c>
       <c r="M9" s="39">
@@ -15486,7 +16185,7 @@
         <v>to̍ng</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="57.75">
+    <row r="10" spans="2:15" ht="54" customHeight="1">
       <c r="B10" s="51">
         <v>8</v>
       </c>
@@ -15505,18 +16204,18 @@
       <c r="G10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="87" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="56" t="str">
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "k"), "")</f>
         <v>tók</v>
       </c>
-      <c r="J10" s="92" t="str">
+      <c r="J10" s="87" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("tok", F10)</f>
         <v>tok]</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="90" t="s">
         <v>122</v>
       </c>
       <c r="M10" s="39">
@@ -15532,7 +16231,7 @@
         <v>tőng</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="57.75">
+    <row r="11" spans="2:15" ht="54" customHeight="1">
       <c r="B11" s="47">
         <v>0</v>
       </c>
@@ -15551,17 +16250,18 @@
       <c r="G11" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="91" t="s">
+      <c r="H11" s="86" t="s">
         <v>211</v>
       </c>
       <c r="I11" s="49" t="str">
         <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("ah", "⁰"), "")</f>
         <v>ah⁰</v>
       </c>
-      <c r="J11" s="91" t="str">
+      <c r="J11" s="86" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("ah", F11)</f>
         <v>ah7</v>
       </c>
+      <c r="L11" s="89"/>
     </row>
     <row r="18" spans="2:10" outlineLevel="1"/>
     <row r="19" spans="2:10" ht="57.75">
@@ -15593,15 +16293,6 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" display="https://zi-hi.com/sp/uni/0301" xr:uid="{04B8C98D-F169-4293-98FF-A169289A30B8}"/>
-    <hyperlink ref="L4" r:id="rId2" display="https://zi-hi.com/sp/uni/0300" xr:uid="{164A5C7C-0930-406F-8911-B14C8B68FEB2}"/>
-    <hyperlink ref="L6" r:id="rId3" display="https://zi-hi.com/sp/uni/0302" xr:uid="{054188C0-C2E4-4E26-819B-D1BC7F53A240}"/>
-    <hyperlink ref="L7" r:id="rId4" display="https://zi-hi.com/sp/uni/030C" xr:uid="{EADE347E-F69C-41CA-8055-93A08EA6B08A}"/>
-    <hyperlink ref="L8" r:id="rId5" display="https://zi-hi.com/sp/uni/0304" xr:uid="{253F7A72-1E1E-44A5-8B9C-137C6D2B9AA1}"/>
-    <hyperlink ref="L9" r:id="rId6" display="https://zi-hi.com/sp/uni/030D" xr:uid="{F842F116-D33E-49E6-9149-1B6667AAC917}"/>
-    <hyperlink ref="L10" r:id="rId7" display="https://zi-hi.com/sp/uni/030B" xr:uid="{39F28880-C71D-4A85-9BBE-350E7DDA4969}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15611,7 +16302,7 @@
   <dimension ref="B2:U11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15730,7 +16421,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I4" s="65" t="s">
         <v>218</v>
@@ -15786,7 +16477,7 @@
         <v>226</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>215</v>
@@ -15883,7 +16574,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I7" s="66" t="s">
         <v>216</v>
@@ -15939,7 +16630,7 @@
         <v>231</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I8" s="65" t="s">
         <v>219</v>
@@ -15995,7 +16686,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="62" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I9" s="66" t="s">
         <v>261</v>
@@ -16144,11 +16835,1004 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A72C4FC-9A57-4FFC-AD4B-7C470E5E34C6}">
+  <dimension ref="B2:O19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="10" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="16.375" style="88" customWidth="1"/>
+    <col min="13" max="15" width="12.125" style="88" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="34.5" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="82"/>
+      <c r="J2" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="L2" s="89"/>
+    </row>
+    <row r="3" spans="2:15" ht="54" customHeight="1">
+      <c r="B3" s="47">
+        <v>1</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="45">
+        <v>44</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="H3" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
+        <v>tōng</v>
+      </c>
+      <c r="J3" s="86" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tong", F3)</f>
+        <v>tong;</v>
+      </c>
+      <c r="L3" s="90" t="s">
+        <v>301</v>
+      </c>
+      <c r="M3" s="39">
+        <f xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(L3,4)), "")</f>
+        <v>769</v>
+      </c>
+      <c r="N3" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L3,4)))), "")</f>
+        <v>ó</v>
+      </c>
+      <c r="O3" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L3,4))), "ng"), "")</f>
+        <v>tóng</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="54" customHeight="1">
+      <c r="B4" s="51">
+        <v>2</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="52">
+        <v>24</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "ng"), "")</f>
+        <v>tóng</v>
+      </c>
+      <c r="J4" s="87" t="str">
+        <f t="shared" ref="J4:J8" si="0" xml:space="preserve"> _xlfn.CONCAT("tong", F4)</f>
+        <v>tong/</v>
+      </c>
+      <c r="L4" s="90" t="s">
+        <v>302</v>
+      </c>
+      <c r="M4" s="39">
+        <f t="shared" ref="M4:M10" si="1" xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(L4,4)), "")</f>
+        <v>768</v>
+      </c>
+      <c r="N4" s="39" t="str">
+        <f t="shared" ref="N4:N10" si="2" xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L4,4)))), "")</f>
+        <v>ò</v>
+      </c>
+      <c r="O4" s="39" t="str">
+        <f t="shared" ref="O4:O10" si="3" xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(L4,4))), "ng"), "")</f>
+        <v>tòng</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="54" customHeight="1">
+      <c r="B5" s="47">
+        <v>3</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="45">
+        <v>53</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="H5" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+030C",4))), "ng"), "")</f>
+        <v>tǒng</v>
+      </c>
+      <c r="J5" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>tong\</v>
+      </c>
+      <c r="L5" s="91"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="2:15" ht="54" customHeight="1">
+      <c r="B6" s="51">
+        <v>4</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="96"/>
+      <c r="L6" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" s="39">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="N6" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>ô</v>
+      </c>
+      <c r="O6" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>tông</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="54" customHeight="1">
+      <c r="B7" s="47">
+        <v>5</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="45">
+        <v>21</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0300",4))), "ng"), "")</f>
+        <v>tòng</v>
+      </c>
+      <c r="J7" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>tong_</v>
+      </c>
+      <c r="L7" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="M7" s="39">
+        <f t="shared" si="1"/>
+        <v>780</v>
+      </c>
+      <c r="N7" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>ǒ</v>
+      </c>
+      <c r="O7" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>tǒng</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="54" customHeight="1">
+      <c r="B8" s="51">
+        <v>6</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="52">
+        <v>22</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0302",4))), "ng"), "")</f>
+        <v>tông</v>
+      </c>
+      <c r="J8" s="87" t="str">
+        <f t="shared" si="0"/>
+        <v>tong-</v>
+      </c>
+      <c r="L8" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="M8" s="39">
+        <f t="shared" si="1"/>
+        <v>772</v>
+      </c>
+      <c r="N8" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>ō</v>
+      </c>
+      <c r="O8" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
+        <v>tōng</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="54" customHeight="1">
+      <c r="B9" s="47">
+        <v>7</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="45">
+        <v>30</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>300</v>
+      </c>
+      <c r="I9" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "k"), "")</f>
+        <v>tōk</v>
+      </c>
+      <c r="J9" s="86" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tok", F9)</f>
+        <v>tok[</v>
+      </c>
+      <c r="L9" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" s="39">
+        <f t="shared" si="1"/>
+        <v>781</v>
+      </c>
+      <c r="N9" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>o̍</v>
+      </c>
+      <c r="O9" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>to̍ng</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="54" customHeight="1">
+      <c r="B10" s="51">
+        <v>8</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="52">
+        <v>121</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="56" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))), "k"), "")</f>
+        <v>tók</v>
+      </c>
+      <c r="J10" s="87" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("tok", F10)</f>
+        <v>tok]</v>
+      </c>
+      <c r="L10" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="39">
+        <f t="shared" si="1"/>
+        <v>779</v>
+      </c>
+      <c r="N10" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>ő</v>
+      </c>
+      <c r="O10" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>tőng</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="54" customHeight="1">
+      <c r="B11" s="47">
+        <v>0</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="45">
+        <v>20</v>
+      </c>
+      <c r="F11" s="50">
+        <v>7</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>211</v>
+      </c>
+      <c r="I11" s="49" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("ah", "⁰"), "")</f>
+        <v>ah⁰</v>
+      </c>
+      <c r="J11" s="86" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ah", F11)</f>
+        <v>ah7</v>
+      </c>
+      <c r="L11" s="89"/>
+    </row>
+    <row r="18" spans="2:10" outlineLevel="1"/>
+    <row r="19" spans="2:10" ht="57.75">
+      <c r="B19" s="9">
+        <v>4</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10">
+        <v>53</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="11" t="str">
+        <f xml:space="preserve"> "dong" &amp; J19</f>
+        <v>dong6</v>
+      </c>
+      <c r="J19" s="10">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7901A212-BC76-4FB3-9AC0-2C14DAF4E84E}">
+  <dimension ref="B2:U11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="18" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="25.5">
+      <c r="B2" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="57.75">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="68">
+        <v>44</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="63" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(I3, F3)</f>
+        <v>ㄊㆲ:</v>
+      </c>
+      <c r="L3" s="67" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))))</f>
+        <v>ㄚ̄</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="O3" s="39">
+        <f xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(N3,4)), "")</f>
+        <v>769</v>
+      </c>
+      <c r="P3" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(N3,4)))), "")</f>
+        <v>ó</v>
+      </c>
+      <c r="Q3" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(N3,4))), "ng"), "")</f>
+        <v>tóng</v>
+      </c>
+      <c r="S3" s="67" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT( LEFT(C3,2), " ", L3,)</f>
+        <v>陰平 ㄚ̄</v>
+      </c>
+      <c r="U3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="57.75">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="71">
+        <v>24</v>
+      </c>
+      <c r="F4" s="71">
+        <v>6</v>
+      </c>
+      <c r="G4" s="99" t="s">
+        <v>306</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="J4" s="65" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT( LEFT( I4, LEN(I4)-1), F4)</f>
+        <v>ㄊㆲ6</v>
+      </c>
+      <c r="L4" s="67" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))))</f>
+        <v>ㄚ́</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="O4" s="39">
+        <f t="shared" ref="O4:O10" si="0" xml:space="preserve"> IFERROR( HEX2DEC(RIGHT(N4,4)), "")</f>
+        <v>768</v>
+      </c>
+      <c r="P4" s="39" t="str">
+        <f t="shared" ref="P4:P10" si="1" xml:space="preserve"> IFERROR( _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC(RIGHT(N4,4)))), "")</f>
+        <v>ò</v>
+      </c>
+      <c r="Q4" s="39" t="str">
+        <f t="shared" ref="Q4:Q10" si="2" xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT(N4,4))), "ng"), "")</f>
+        <v>tòng</v>
+      </c>
+      <c r="S4" s="67" t="str">
+        <f t="shared" ref="S4:S11" si="3" xml:space="preserve"> _xlfn.CONCAT( LEFT(C4,2), " ", L4,)</f>
+        <v>陽平 ㄚ́</v>
+      </c>
+      <c r="U4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="57.75">
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="68">
+        <v>53</v>
+      </c>
+      <c r="F5" s="68">
+        <v>4</v>
+      </c>
+      <c r="G5" s="98" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="J5" s="66" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT( LEFT( I5, LEN(I5)-1), F5)</f>
+        <v>ㄊㆲ4</v>
+      </c>
+      <c r="L5" s="67" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+030C",4))))</f>
+        <v>ㄚ̌</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="39">
+        <f t="shared" si="0"/>
+        <v>781</v>
+      </c>
+      <c r="P5" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>o̍</v>
+      </c>
+      <c r="Q5" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>to̍ng</v>
+      </c>
+      <c r="S5" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>陰上 ㄚ̌</v>
+      </c>
+      <c r="U5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="42">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="L6" s="67" t="str">
+        <f t="shared" ref="L6" si="4" xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))))</f>
+        <v>ㄚ̄</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="O6" s="39">
+        <f t="shared" si="0"/>
+        <v>770</v>
+      </c>
+      <c r="P6" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>ô</v>
+      </c>
+      <c r="Q6" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>tông</v>
+      </c>
+      <c r="S6" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>陽上 ㄚ̄</v>
+      </c>
+      <c r="U6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="57.75">
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="68">
+        <v>21</v>
+      </c>
+      <c r="F7" s="68">
+        <v>3</v>
+      </c>
+      <c r="G7" s="101" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="I7" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="J7" s="66" t="str">
+        <f t="shared" ref="J7:J11" si="5" xml:space="preserve"> _xlfn.CONCAT( LEFT( I7, LEN(I7)-1), F7)</f>
+        <v>ㄊㆲ3</v>
+      </c>
+      <c r="L7" s="67" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0300",4))))</f>
+        <v>ㄚ̀</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="O7" s="39">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+      <c r="P7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>ǒ</v>
+      </c>
+      <c r="Q7" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>tǒng</v>
+      </c>
+      <c r="S7" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>陰去 ㄚ̀</v>
+      </c>
+      <c r="U7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="57.75">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="71">
+        <v>22</v>
+      </c>
+      <c r="F8" s="71">
+        <v>5</v>
+      </c>
+      <c r="G8" s="102" t="s">
+        <v>306</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="J8" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v>ㄊㆲ5</v>
+      </c>
+      <c r="L8" s="67" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ",_xlfn.UNICHAR(HEX2DEC(RIGHT("U+0302",4))))</f>
+        <v>ㄚ̂</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="O8" s="39">
+        <f t="shared" si="0"/>
+        <v>772</v>
+      </c>
+      <c r="P8" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>ō</v>
+      </c>
+      <c r="Q8" s="39" t="str">
+        <f xml:space="preserve"> IFERROR( _xlfn.CONCAT("t", "o", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))), "ng"), "")</f>
+        <v>tōng</v>
+      </c>
+      <c r="S8" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>陽去 ㄚ̂</v>
+      </c>
+      <c r="U8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="57.75">
+      <c r="B9" s="12">
+        <v>7</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="68">
+        <v>30</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="101" t="s">
+        <v>312</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="J9" s="66" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT( LEFT( I9, LEN(I9)), F9)</f>
+        <v>ㄊㆦㆻ[</v>
+      </c>
+      <c r="L9" s="67" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ", "ㆷ", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0304",4))))</f>
+        <v>ㄚㆷ̄</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="O9" s="39">
+        <f t="shared" si="0"/>
+        <v>781</v>
+      </c>
+      <c r="P9" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>o̍</v>
+      </c>
+      <c r="Q9" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>to̍ng</v>
+      </c>
+      <c r="S9" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>陰入 ㄚㆷ̄</v>
+      </c>
+      <c r="U9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="57.75">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="71">
+        <v>121</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="102" t="s">
+        <v>314</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="J10" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v>ㄊㆦㆻ]</v>
+      </c>
+      <c r="L10" s="67" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ", "ㆷ", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+0301",4))))</f>
+        <v>ㄚㆷ́</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="39">
+        <f t="shared" si="0"/>
+        <v>779</v>
+      </c>
+      <c r="P10" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>ő</v>
+      </c>
+      <c r="Q10" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>tőng</v>
+      </c>
+      <c r="S10" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>陽入 ㄚㆷ́</v>
+      </c>
+      <c r="U10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="57.75">
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="68">
+        <v>20</v>
+      </c>
+      <c r="F11" s="68">
+        <v>7</v>
+      </c>
+      <c r="G11" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="I11" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="J11" s="66" t="str">
+        <f t="shared" si="5"/>
+        <v>ㄚㆷ7</v>
+      </c>
+      <c r="L11" s="67" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ㄚ", "ㆷ", _xlfn.UNICHAR(HEX2DEC(RIGHT("U+02D9",4))))</f>
+        <v>ㄚㆷ˙</v>
+      </c>
+      <c r="S11" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>輕聲 ㄚㆷ˙</v>
+      </c>
+      <c r="U11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N3" r:id="rId1" display="https://zi-hi.com/sp/uni/0301" xr:uid="{29557F67-C9E1-4207-ADB3-05F135001A7D}"/>
+    <hyperlink ref="N4" r:id="rId2" display="https://zi-hi.com/sp/uni/0300" xr:uid="{584FA487-D384-410F-94AE-997BFBD2F0D8}"/>
+    <hyperlink ref="N6" r:id="rId3" display="https://zi-hi.com/sp/uni/0302" xr:uid="{062EA93B-82EA-4958-9DC7-1DBEF3133A6B}"/>
+    <hyperlink ref="N7" r:id="rId4" display="https://zi-hi.com/sp/uni/030C" xr:uid="{9A22CE96-0A67-43FA-AD4B-031FFDA6176F}"/>
+    <hyperlink ref="N8" r:id="rId5" display="https://zi-hi.com/sp/uni/0304" xr:uid="{70982C0D-2852-40A7-83D2-6FBB84065F85}"/>
+    <hyperlink ref="N9" r:id="rId6" display="https://zi-hi.com/sp/uni/030D" xr:uid="{8DB31655-ECC1-4C79-8EDE-6EB6127CF1FA}"/>
+    <hyperlink ref="N10" r:id="rId7" display="https://zi-hi.com/sp/uni/030B" xr:uid="{13744238-B778-4891-82A3-79717A6C6088}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A17A80-03F8-423A-8766-B16781C638F3}">
   <dimension ref="B2:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:R11"/>
+      <selection activeCell="F3" sqref="F3:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16253,7 +17937,7 @@
         <v>225</v>
       </c>
       <c r="D4" s="71">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E4" s="72">
         <v>4</v>
@@ -16307,7 +17991,7 @@
         <v>227</v>
       </c>
       <c r="D5" s="68">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E5" s="69">
         <v>3</v>
@@ -16360,9 +18044,7 @@
       <c r="C6" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="71">
-        <v>32</v>
-      </c>
+      <c r="D6" s="71"/>
       <c r="E6" s="72" t="s">
         <v>43</v>
       </c>
@@ -16415,7 +18097,7 @@
         <v>228</v>
       </c>
       <c r="D7" s="68">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E7" s="69">
         <v>6</v>
@@ -16466,7 +18148,9 @@
       <c r="C8" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="75"/>
+      <c r="D8" s="75">
+        <v>22</v>
+      </c>
       <c r="E8" s="76"/>
       <c r="F8" s="60" t="s">
         <v>23</v>
@@ -16515,7 +18199,7 @@
         <v>230</v>
       </c>
       <c r="D9" s="68">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E9" s="69">
         <v>5</v>
@@ -16619,7 +18303,7 @@
         <v>258</v>
       </c>
       <c r="D11" s="68">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E11" s="69">
         <v>7</v>
@@ -16669,7 +18353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC180E-22C7-41E3-9B1C-02C96E708532}">
   <dimension ref="B2:O18"/>
   <sheetViews>
@@ -17165,7 +18849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71574A8B-8D3F-4AFC-B56E-E3C6E782C4A4}">
   <dimension ref="B2:L18"/>
   <sheetViews>
@@ -17466,7 +19150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045723BE-64D2-4E8C-B115-C260854DB41D}">
   <dimension ref="B2:R18"/>
   <sheetViews>
@@ -17940,554 +19624,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1050C03-4A49-40F3-8140-C9DAF6B05C63}">
-  <dimension ref="B2:I18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" ht="25.5">
-      <c r="B2" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="65.25">
-      <c r="B3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="16" t="str">
-        <f xml:space="preserve"> "tong" &amp; H3</f>
-        <v>tong1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="7">
-        <v>44</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="65.25">
-      <c r="B4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="17" t="str">
-        <f t="shared" ref="C4:C7" si="0" xml:space="preserve"> "tong" &amp; H4</f>
-        <v>tong7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="65.25">
-      <c r="B5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>tong3</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7">
-        <v>21</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="65.25">
-      <c r="B6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="17" t="str">
-        <f xml:space="preserve"> "tong" &amp; H6</f>
-        <v>tong2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3">
-        <v>53</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="65.25">
-      <c r="B7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>tong5</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="65.25">
-      <c r="B8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4</v>
-      </c>
-      <c r="I8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="65.25">
-      <c r="B9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
-        <v>121</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>8</v>
-      </c>
-      <c r="I9" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="57.75" outlineLevel="1">
-      <c r="B18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="11" t="str">
-        <f xml:space="preserve"> "dong" &amp; H18</f>
-        <v>dong6</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10">
-        <v>53</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="10">
-        <v>6</v>
-      </c>
-      <c r="I18" s="9">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1566D659-7E1D-42E7-9495-78EC72F6C0D2}">
-  <dimension ref="B2:J18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" ht="25.5">
-      <c r="B2" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="65.25">
-      <c r="B3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="29" t="str">
-        <f xml:space="preserve"> "tong" &amp; I3</f>
-        <v>tong1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="31">
-        <v>44</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="24">
-        <v>1</v>
-      </c>
-      <c r="J3" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="65.25">
-      <c r="B4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="30" t="str">
-        <f t="shared" ref="C4:C7" si="0" xml:space="preserve"> "tong" &amp; I4</f>
-        <v>tong7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="32">
-        <v>22</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="25">
-        <v>7</v>
-      </c>
-      <c r="J4" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="65.25">
-      <c r="B5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>tong3</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="31">
-        <v>21</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="24">
-        <v>3</v>
-      </c>
-      <c r="J5" s="24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="65.25">
-      <c r="B6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="30" t="str">
-        <f xml:space="preserve"> "tong" &amp; I6</f>
-        <v>tong2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="32">
-        <v>53</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="25">
-        <v>2</v>
-      </c>
-      <c r="J6" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="65.25">
-      <c r="B7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>tong5</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="31">
-        <v>13</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="24">
-        <v>5</v>
-      </c>
-      <c r="J7" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="65.25">
-      <c r="B8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="32">
-        <v>32</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="25">
-        <v>4</v>
-      </c>
-      <c r="J8" s="25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="65.25">
-      <c r="B9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="31">
-        <v>121</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="24">
-        <v>8</v>
-      </c>
-      <c r="J9" s="24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="57.75" outlineLevel="1">
-      <c r="B18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="11" t="str">
-        <f xml:space="preserve"> "dong" &amp; I18</f>
-        <v>dong6</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10">
-        <v>53</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="10">
-        <v>6</v>
-      </c>
-      <c r="J18" s="9">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>